--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1481911.543980004</v>
+        <v>1431203.093005086</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7283347.806969948</v>
+        <v>7283347.806969947</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.9057669475615</v>
       </c>
       <c r="U11" t="n">
-        <v>196.9057669475614</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S12" t="n">
-        <v>151.1859334239523</v>
+        <v>135.3430541180096</v>
       </c>
       <c r="T12" t="n">
         <v>195.7168039184781</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>72.82059682727346</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R13" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T13" t="n">
-        <v>117.516840567274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="V13" t="n">
-        <v>223.5533230558146</v>
+        <v>203.8716603414239</v>
       </c>
       <c r="W13" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>162.0218528261079</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>223.5533230558146</v>
       </c>
-      <c r="V14" t="n">
-        <v>34.88391412145357</v>
-      </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>44.36978887994986</v>
+      </c>
+      <c r="Y14" t="n">
         <v>223.5533230558146</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>137.8135799276517</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>51.40293372813255</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>79.67307369151412</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W15" t="n">
         <v>223.5533230558146</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51.48471892463025</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>223.5533230558146</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>201.8744366512813</v>
+      </c>
+      <c r="X16" t="n">
         <v>223.5533230558146</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>223.5533230558146</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="W17" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>55.11522378108178</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5924025361533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>88.38990534804574</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9.003409022594248</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="V18" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>223.5533230558147</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>109.0042123458821</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S19" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>41.59350894651601</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>223.5533230558147</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>223.5533230558147</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T20" t="n">
-        <v>196.9057669475615</v>
+        <v>14.57054971004542</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>223.5533230558147</v>
-      </c>
-      <c r="W20" t="n">
-        <v>223.5533230558147</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.162124294266347</v>
       </c>
       <c r="S21" t="n">
-        <v>76.07972971354094</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T21" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>223.5533230558147</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.09998413214642</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>207.8938129283803</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>68.17623200394947</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>102.7966655593055</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H23" t="n">
         <v>318.3526743090856</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>338.9951472416772</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I24" t="n">
-        <v>51.40293372813237</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2520,28 +2520,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>60.37089885051483</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U25" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>70.78148138888972</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>78.421753348067</v>
       </c>
       <c r="F26" t="n">
-        <v>387.79265974922</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I26" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S26" t="n">
         <v>162.0218528261079</v>
@@ -2614,16 +2614,16 @@
         <v>251.1806564255189</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>71.79053722092382</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>44.56058143965594</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>355.5250115654858</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H29" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>130.9630535135678</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S29" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U29" t="n">
         <v>251.1806564255189</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>234.6381342044075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933837</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.2400059020503</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773043</v>
       </c>
     </row>
     <row r="31">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>127.0143278319886</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>5.947284223772741</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>79.36703371587549</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1806564255189</v>
+        <v>139.9647068769426</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I33" t="n">
-        <v>51.40293372813237</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9926895842344</v>
+        <v>42.63652764929616</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.76719019475332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>11.67247848915813</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>95.83900257779783</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>22.7163023922618</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I36" t="n">
-        <v>44.52290955220658</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.1859334239523</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.42965795819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>61.56609157849208</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.16261045021419</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T38" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>63.43474962957914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>31.6433367272689</v>
       </c>
       <c r="S39" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>195.7168039184781</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>245.3334083958623</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>20.24376441865593</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>84.20187010340663</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>10.42965795819372</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>322.9178989817072</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.0674482973184</v>
+        <v>126.6416622551789</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.1859334239523</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.1264959859322</v>
+        <v>203.384067847717</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>197.4629185491349</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2685668052903</v>
+        <v>13.03382632357284</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>225.3325016138045</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0264529262188</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>124.0642851817357</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H45" t="n">
         <v>101.5778486352903</v>
@@ -4115,16 +4115,16 @@
         <v>225.8687826558985</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>123.5932693576315</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.719826373386</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>105.1668364016527</v>
       </c>
       <c r="T46" t="n">
         <v>223.9926895842344</v>
@@ -4194,7 +4194,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.695703274581</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="C11" t="n">
         <v>243.695703274581</v>
@@ -5029,10 +5029,10 @@
         <v>243.695703274581</v>
       </c>
       <c r="F11" t="n">
-        <v>17.88426584446517</v>
+        <v>243.695703274581</v>
       </c>
       <c r="G11" t="n">
-        <v>17.88426584446517</v>
+        <v>243.695703274581</v>
       </c>
       <c r="H11" t="n">
         <v>17.88426584446517</v>
@@ -5044,49 +5044,49 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K11" t="n">
-        <v>59.72393299398526</v>
+        <v>59.72393299398531</v>
       </c>
       <c r="L11" t="n">
-        <v>148.5315016673516</v>
+        <v>148.5315016673517</v>
       </c>
       <c r="M11" t="n">
-        <v>279.0164706471359</v>
+        <v>279.0164706471361</v>
       </c>
       <c r="N11" t="n">
-        <v>416.226631221681</v>
+        <v>416.2266312216814</v>
       </c>
       <c r="O11" t="n">
-        <v>532.4550337826987</v>
+        <v>532.455033782699</v>
       </c>
       <c r="P11" t="n">
-        <v>683.6092564322853</v>
+        <v>753.7728236079556</v>
       </c>
       <c r="Q11" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="R11" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="S11" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="T11" t="n">
-        <v>894.2132922232586</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="U11" t="n">
         <v>695.3185781348127</v>
       </c>
       <c r="V11" t="n">
-        <v>469.5071407046968</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="W11" t="n">
-        <v>243.695703274581</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="X11" t="n">
-        <v>243.695703274581</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.695703274581</v>
+        <v>469.5071407046969</v>
       </c>
     </row>
     <row r="12">
@@ -5123,49 +5123,49 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K12" t="n">
-        <v>239.2020556697217</v>
+        <v>100.3873282198207</v>
       </c>
       <c r="L12" t="n">
-        <v>408.4012866309009</v>
+        <v>200.4247717724104</v>
       </c>
       <c r="M12" t="n">
-        <v>544.4971329676583</v>
+        <v>336.5206181091678</v>
       </c>
       <c r="N12" t="n">
-        <v>698.6036763068673</v>
+        <v>490.6271614483768</v>
       </c>
       <c r="O12" t="n">
-        <v>817.3612611065234</v>
+        <v>609.3847462480329</v>
       </c>
       <c r="P12" t="n">
-        <v>893.3416265185888</v>
+        <v>685.3651116600983</v>
       </c>
       <c r="Q12" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="R12" t="n">
-        <v>894.2132922232586</v>
+        <v>862.250325832078</v>
       </c>
       <c r="S12" t="n">
-        <v>741.5002281586603</v>
+        <v>725.5401701573209</v>
       </c>
       <c r="T12" t="n">
-        <v>543.8064868268642</v>
+        <v>527.8464288255248</v>
       </c>
       <c r="U12" t="n">
-        <v>543.8064868268642</v>
+        <v>527.8464288255248</v>
       </c>
       <c r="V12" t="n">
-        <v>470.2503284154769</v>
+        <v>302.0349913954088</v>
       </c>
       <c r="W12" t="n">
-        <v>470.2503284154769</v>
+        <v>302.0349913954088</v>
       </c>
       <c r="X12" t="n">
-        <v>470.2503284154769</v>
+        <v>302.0349913954088</v>
       </c>
       <c r="Y12" t="n">
-        <v>470.2503284154769</v>
+        <v>302.0349913954088</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.8204487723721</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="C13" t="n">
         <v>17.88426584446517</v>
@@ -5202,49 +5202,49 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K13" t="n">
-        <v>102.247850653548</v>
+        <v>102.2478506535482</v>
       </c>
       <c r="L13" t="n">
-        <v>265.7306284464742</v>
+        <v>265.7306284464744</v>
       </c>
       <c r="M13" t="n">
-        <v>448.4894187467696</v>
+        <v>448.4894187467698</v>
       </c>
       <c r="N13" t="n">
-        <v>632.3372299215587</v>
+        <v>632.3372299215588</v>
       </c>
       <c r="O13" t="n">
-        <v>786.1341446575033</v>
+        <v>786.1341446575034</v>
       </c>
       <c r="P13" t="n">
-        <v>894.2132922232586</v>
+        <v>894.2132922232587</v>
       </c>
       <c r="Q13" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792465</v>
       </c>
       <c r="R13" t="n">
-        <v>757.1472029934866</v>
+        <v>885.4318611792465</v>
       </c>
       <c r="S13" t="n">
-        <v>757.1472029934866</v>
+        <v>675.4381107465392</v>
       </c>
       <c r="T13" t="n">
-        <v>638.4433236326038</v>
+        <v>675.4381107465392</v>
       </c>
       <c r="U13" t="n">
-        <v>638.4433236326038</v>
+        <v>449.6266733164234</v>
       </c>
       <c r="V13" t="n">
-        <v>412.6318862024879</v>
+        <v>243.695703274581</v>
       </c>
       <c r="W13" t="n">
-        <v>186.8204487723721</v>
+        <v>243.695703274581</v>
       </c>
       <c r="X13" t="n">
-        <v>186.8204487723721</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.8204487723721</v>
+        <v>17.88426584446517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="C14" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D14" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E14" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F14" t="n">
         <v>17.88426584446517</v>
@@ -5278,16 +5278,16 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J14" t="n">
-        <v>91.19003556225162</v>
+        <v>179.3523629982428</v>
       </c>
       <c r="K14" t="n">
-        <v>133.0297027117717</v>
+        <v>356.3727447091337</v>
       </c>
       <c r="L14" t="n">
-        <v>354.3474925370282</v>
+        <v>445.1803133825002</v>
       </c>
       <c r="M14" t="n">
-        <v>575.6652823622846</v>
+        <v>575.6652823622845</v>
       </c>
       <c r="N14" t="n">
         <v>712.8754429368298</v>
@@ -5308,22 +5308,22 @@
         <v>730.5548550251698</v>
       </c>
       <c r="T14" t="n">
-        <v>730.5548550251698</v>
+        <v>514.3251092703027</v>
       </c>
       <c r="U14" t="n">
-        <v>504.743417595054</v>
+        <v>514.3251092703027</v>
       </c>
       <c r="V14" t="n">
-        <v>469.5071407046968</v>
+        <v>288.5136718401869</v>
       </c>
       <c r="W14" t="n">
-        <v>243.695703274581</v>
+        <v>288.5136718401869</v>
       </c>
       <c r="X14" t="n">
         <v>243.695703274581</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.5503545876099</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="C15" t="n">
-        <v>321.3447182970527</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="D15" t="n">
-        <v>172.4103086358014</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="E15" t="n">
-        <v>172.4103086358014</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="F15" t="n">
-        <v>172.4103086358014</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G15" t="n">
-        <v>172.4103086358014</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H15" t="n">
-        <v>69.80642112540714</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I15" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J15" t="n">
-        <v>17.88426584446517</v>
+        <v>120.3601786590473</v>
       </c>
       <c r="K15" t="n">
-        <v>57.83218144019041</v>
+        <v>160.3080942547726</v>
       </c>
       <c r="L15" t="n">
-        <v>279.1499712654469</v>
+        <v>260.3455378073622</v>
       </c>
       <c r="M15" t="n">
-        <v>500.4677610907033</v>
+        <v>396.4413841441196</v>
       </c>
       <c r="N15" t="n">
-        <v>654.5743044299123</v>
+        <v>550.5479274833286</v>
       </c>
       <c r="O15" t="n">
-        <v>817.3612611065234</v>
+        <v>669.3055122829848</v>
       </c>
       <c r="P15" t="n">
-        <v>893.3416265185888</v>
+        <v>745.2858776950501</v>
       </c>
       <c r="Q15" t="n">
         <v>894.2132922232586</v>
@@ -5387,22 +5387,22 @@
         <v>894.2132922232586</v>
       </c>
       <c r="T15" t="n">
-        <v>894.2132922232586</v>
+        <v>696.5195508914625</v>
       </c>
       <c r="U15" t="n">
-        <v>894.2132922232586</v>
+        <v>616.0416986778118</v>
       </c>
       <c r="V15" t="n">
-        <v>894.2132922232586</v>
+        <v>390.230261247696</v>
       </c>
       <c r="W15" t="n">
-        <v>668.4018547931428</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="X15" t="n">
-        <v>460.5503545876099</v>
+        <v>164.4188238175802</v>
       </c>
       <c r="Y15" t="n">
-        <v>460.5503545876099</v>
+        <v>164.4188238175802</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.7789799329111</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="C16" t="n">
-        <v>216.7789799329111</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D16" t="n">
-        <v>216.7789799329111</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E16" t="n">
-        <v>216.7789799329111</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F16" t="n">
-        <v>69.88903243500079</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G16" t="n">
         <v>17.88426584446517</v>
@@ -5439,13 +5439,13 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K16" t="n">
-        <v>102.2478506535479</v>
+        <v>102.247850653548</v>
       </c>
       <c r="L16" t="n">
-        <v>265.7306284464741</v>
+        <v>265.7306284464742</v>
       </c>
       <c r="M16" t="n">
-        <v>448.4894187467697</v>
+        <v>448.4894187467696</v>
       </c>
       <c r="N16" t="n">
         <v>632.3372299215587</v>
@@ -5469,19 +5469,19 @@
         <v>668.4018547931428</v>
       </c>
       <c r="U16" t="n">
-        <v>442.590417363027</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="V16" t="n">
-        <v>442.590417363027</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="W16" t="n">
-        <v>216.7789799329111</v>
+        <v>464.4882824181111</v>
       </c>
       <c r="X16" t="n">
-        <v>216.7789799329111</v>
+        <v>238.6768449879953</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7789799329111</v>
+        <v>17.88426584446517</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>469.5071407046969</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="C17" t="n">
-        <v>243.695703274581</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="D17" t="n">
-        <v>243.695703274581</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="E17" t="n">
-        <v>243.695703274581</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="F17" t="n">
-        <v>243.695703274581</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="G17" t="n">
-        <v>17.88426584446517</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="H17" t="n">
-        <v>17.88426584446517</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="I17" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J17" t="n">
-        <v>17.88426584446517</v>
+        <v>179.3523629982428</v>
       </c>
       <c r="K17" t="n">
-        <v>239.2020556697217</v>
+        <v>356.3727447091338</v>
       </c>
       <c r="L17" t="n">
-        <v>328.0096243430881</v>
+        <v>445.1803133825003</v>
       </c>
       <c r="M17" t="n">
-        <v>458.4945933228725</v>
+        <v>575.6652823622846</v>
       </c>
       <c r="N17" t="n">
-        <v>595.7047538974177</v>
+        <v>712.8754429368299</v>
       </c>
       <c r="O17" t="n">
-        <v>711.9331564584354</v>
+        <v>829.1038454978476</v>
       </c>
       <c r="P17" t="n">
-        <v>776.6304081461789</v>
+        <v>893.8010971855911</v>
       </c>
       <c r="Q17" t="n">
         <v>894.2132922232587</v>
@@ -5545,22 +5545,22 @@
         <v>873.6947423127453</v>
       </c>
       <c r="T17" t="n">
-        <v>873.6947423127453</v>
+        <v>657.4649965578783</v>
       </c>
       <c r="U17" t="n">
-        <v>873.6947423127453</v>
+        <v>431.6535591277624</v>
       </c>
       <c r="V17" t="n">
-        <v>873.6947423127453</v>
+        <v>205.8421216976466</v>
       </c>
       <c r="W17" t="n">
-        <v>647.8833048826295</v>
+        <v>205.8421216976466</v>
       </c>
       <c r="X17" t="n">
-        <v>647.8833048826295</v>
+        <v>150.1701784844327</v>
       </c>
       <c r="Y17" t="n">
-        <v>469.5071407046969</v>
+        <v>150.1701784844327</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.97861839254017</v>
+        <v>410.6274509718464</v>
       </c>
       <c r="C18" t="n">
-        <v>26.97861839254017</v>
+        <v>410.6274509718464</v>
       </c>
       <c r="D18" t="n">
-        <v>26.97861839254017</v>
+        <v>261.6930413105951</v>
       </c>
       <c r="E18" t="n">
-        <v>26.97861839254017</v>
+        <v>172.4103086358014</v>
       </c>
       <c r="F18" t="n">
-        <v>26.97861839254017</v>
+        <v>172.4103086358014</v>
       </c>
       <c r="G18" t="n">
-        <v>26.97861839254017</v>
+        <v>172.4103086358014</v>
       </c>
       <c r="H18" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="I18" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J18" t="n">
-        <v>44.5753761843187</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="K18" t="n">
-        <v>84.52329178004396</v>
+        <v>57.83218144019044</v>
       </c>
       <c r="L18" t="n">
-        <v>305.8410816053005</v>
+        <v>157.8696249927801</v>
       </c>
       <c r="M18" t="n">
-        <v>441.9369279420579</v>
+        <v>293.9654713295375</v>
       </c>
       <c r="N18" t="n">
-        <v>596.0434712812669</v>
+        <v>490.6271614483768</v>
       </c>
       <c r="O18" t="n">
-        <v>817.3612611065234</v>
+        <v>609.3847462480329</v>
       </c>
       <c r="P18" t="n">
-        <v>893.3416265185888</v>
+        <v>685.3651116600983</v>
       </c>
       <c r="Q18" t="n">
         <v>894.2132922232587</v>
       </c>
       <c r="R18" t="n">
-        <v>894.2132922232587</v>
+        <v>862.250325832078</v>
       </c>
       <c r="S18" t="n">
-        <v>894.2132922232587</v>
+        <v>862.250325832078</v>
       </c>
       <c r="T18" t="n">
-        <v>894.2132922232587</v>
+        <v>862.250325832078</v>
       </c>
       <c r="U18" t="n">
-        <v>894.2132922232587</v>
+        <v>636.4388884019622</v>
       </c>
       <c r="V18" t="n">
-        <v>668.4018547931428</v>
+        <v>636.4388884019622</v>
       </c>
       <c r="W18" t="n">
-        <v>442.5904173630269</v>
+        <v>410.6274509718464</v>
       </c>
       <c r="X18" t="n">
-        <v>234.7389171574941</v>
+        <v>410.6274509718464</v>
       </c>
       <c r="Y18" t="n">
-        <v>26.97861839254017</v>
+        <v>410.6274509718464</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>186.8204487723721</v>
+        <v>296.7428970892428</v>
       </c>
       <c r="C19" t="n">
-        <v>17.88426584446517</v>
+        <v>296.7428970892428</v>
       </c>
       <c r="D19" t="n">
-        <v>17.88426584446517</v>
+        <v>296.7428970892428</v>
       </c>
       <c r="E19" t="n">
-        <v>17.88426584446517</v>
+        <v>296.7428970892428</v>
       </c>
       <c r="F19" t="n">
-        <v>17.88426584446517</v>
+        <v>296.7428970892428</v>
       </c>
       <c r="G19" t="n">
-        <v>17.88426584446517</v>
+        <v>127.9895308403057</v>
       </c>
       <c r="H19" t="n">
-        <v>17.88426584446517</v>
+        <v>127.9895308403057</v>
       </c>
       <c r="I19" t="n">
         <v>17.88426584446517</v>
@@ -5685,7 +5685,7 @@
         <v>448.4894187467697</v>
       </c>
       <c r="N19" t="n">
-        <v>632.3372299215587</v>
+        <v>632.3372299215588</v>
       </c>
       <c r="O19" t="n">
         <v>786.1341446575034</v>
@@ -5697,28 +5697,28 @@
         <v>885.4318611792465</v>
       </c>
       <c r="R19" t="n">
-        <v>885.4318611792465</v>
+        <v>748.3657719494745</v>
       </c>
       <c r="S19" t="n">
-        <v>675.4381107465392</v>
+        <v>748.3657719494745</v>
       </c>
       <c r="T19" t="n">
-        <v>633.424465346018</v>
+        <v>748.3657719494745</v>
       </c>
       <c r="U19" t="n">
-        <v>407.6130279159022</v>
+        <v>522.5543345193587</v>
       </c>
       <c r="V19" t="n">
-        <v>407.6130279159022</v>
+        <v>522.5543345193587</v>
       </c>
       <c r="W19" t="n">
-        <v>407.6130279159022</v>
+        <v>522.5543345193587</v>
       </c>
       <c r="X19" t="n">
-        <v>407.6130279159022</v>
+        <v>296.7428970892428</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.8204487723721</v>
+        <v>296.7428970892428</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>469.5071407046969</v>
+      </c>
+      <c r="C20" t="n">
+        <v>469.5071407046969</v>
+      </c>
+      <c r="D20" t="n">
+        <v>469.5071407046969</v>
+      </c>
+      <c r="E20" t="n">
         <v>243.695703274581</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17.88426584446517</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.88426584446517</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17.88426584446517</v>
       </c>
       <c r="F20" t="n">
         <v>17.88426584446517</v>
@@ -5755,31 +5755,31 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K20" t="n">
-        <v>239.2020556697217</v>
+        <v>59.72393299398531</v>
       </c>
       <c r="L20" t="n">
-        <v>328.0096243430881</v>
+        <v>281.0417228192418</v>
       </c>
       <c r="M20" t="n">
-        <v>458.4945933228725</v>
+        <v>502.3595126444984</v>
       </c>
       <c r="N20" t="n">
-        <v>595.7047538974177</v>
+        <v>712.8754429368299</v>
       </c>
       <c r="O20" t="n">
-        <v>711.9331564584354</v>
+        <v>829.1038454978476</v>
       </c>
       <c r="P20" t="n">
-        <v>776.6304081461789</v>
+        <v>893.8010971855911</v>
       </c>
       <c r="Q20" t="n">
         <v>894.2132922232587</v>
       </c>
       <c r="R20" t="n">
-        <v>894.2132922232587</v>
+        <v>873.6947423127453</v>
       </c>
       <c r="S20" t="n">
-        <v>894.2132922232587</v>
+        <v>710.0363051146566</v>
       </c>
       <c r="T20" t="n">
         <v>695.3185781348127</v>
@@ -5788,16 +5788,16 @@
         <v>695.3185781348127</v>
       </c>
       <c r="V20" t="n">
+        <v>695.3185781348127</v>
+      </c>
+      <c r="W20" t="n">
+        <v>695.3185781348127</v>
+      </c>
+      <c r="X20" t="n">
+        <v>695.3185781348127</v>
+      </c>
+      <c r="Y20" t="n">
         <v>469.5071407046969</v>
-      </c>
-      <c r="W20" t="n">
-        <v>243.695703274581</v>
-      </c>
-      <c r="X20" t="n">
-        <v>243.695703274581</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>243.695703274581</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="C21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="D21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="E21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="F21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="G21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="H21" t="n">
         <v>17.88426584446517</v>
@@ -5837,46 +5837,46 @@
         <v>57.83218144019044</v>
       </c>
       <c r="L21" t="n">
-        <v>279.1499712654469</v>
+        <v>157.8696249927801</v>
       </c>
       <c r="M21" t="n">
-        <v>415.2458176022044</v>
+        <v>293.9654713295375</v>
       </c>
       <c r="N21" t="n">
-        <v>569.3523609414134</v>
+        <v>448.0720146687465</v>
       </c>
       <c r="O21" t="n">
-        <v>790.6701507666698</v>
+        <v>669.3898044940031</v>
       </c>
       <c r="P21" t="n">
-        <v>893.3416265185888</v>
+        <v>745.3701699060684</v>
       </c>
       <c r="Q21" t="n">
         <v>894.2132922232587</v>
       </c>
       <c r="R21" t="n">
-        <v>894.2132922232587</v>
+        <v>893.0394292997573</v>
       </c>
       <c r="S21" t="n">
-        <v>817.3650803913991</v>
+        <v>740.3263652351591</v>
       </c>
       <c r="T21" t="n">
-        <v>619.671339059603</v>
+        <v>740.3263652351591</v>
       </c>
       <c r="U21" t="n">
-        <v>393.8599016294871</v>
+        <v>514.5149278050433</v>
       </c>
       <c r="V21" t="n">
-        <v>393.8599016294871</v>
+        <v>288.7034903749275</v>
       </c>
       <c r="W21" t="n">
-        <v>393.8599016294871</v>
+        <v>288.7034903749275</v>
       </c>
       <c r="X21" t="n">
-        <v>393.8599016294871</v>
+        <v>288.7034903749275</v>
       </c>
       <c r="Y21" t="n">
-        <v>186.0996028645332</v>
+        <v>288.7034903749275</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.88426584446517</v>
+        <v>237.6155252169052</v>
       </c>
       <c r="C22" t="n">
-        <v>17.88426584446517</v>
+        <v>237.6155252169052</v>
       </c>
       <c r="D22" t="n">
-        <v>17.88426584446517</v>
+        <v>237.6155252169052</v>
       </c>
       <c r="E22" t="n">
-        <v>17.88426584446517</v>
+        <v>89.70243163451207</v>
       </c>
       <c r="F22" t="n">
-        <v>17.88426584446517</v>
+        <v>89.70243163451207</v>
       </c>
       <c r="G22" t="n">
         <v>17.88426584446517</v>
@@ -5919,43 +5919,43 @@
         <v>265.7306284464742</v>
       </c>
       <c r="M22" t="n">
-        <v>448.4894187467697</v>
+        <v>448.4894187467696</v>
       </c>
       <c r="N22" t="n">
         <v>632.3372299215587</v>
       </c>
       <c r="O22" t="n">
-        <v>786.1341446575034</v>
+        <v>786.1341446575033</v>
       </c>
       <c r="P22" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="Q22" t="n">
-        <v>885.4318611792465</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R22" t="n">
-        <v>748.3657719494745</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S22" t="n">
-        <v>538.3720215167671</v>
+        <v>684.2195417905511</v>
       </c>
       <c r="T22" t="n">
-        <v>312.5605840866512</v>
+        <v>458.4081043604353</v>
       </c>
       <c r="U22" t="n">
-        <v>312.5605840866512</v>
+        <v>458.4081043604353</v>
       </c>
       <c r="V22" t="n">
-        <v>312.5605840866512</v>
+        <v>458.4081043604353</v>
       </c>
       <c r="W22" t="n">
-        <v>243.695703274581</v>
+        <v>458.4081043604353</v>
       </c>
       <c r="X22" t="n">
-        <v>17.88426584446517</v>
+        <v>458.4081043604353</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.88426584446517</v>
+        <v>237.6155252169052</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1487.748873391314</v>
+        <v>1665.233450102338</v>
       </c>
       <c r="C23" t="n">
-        <v>1118.786356450903</v>
+        <v>1665.233450102338</v>
       </c>
       <c r="D23" t="n">
-        <v>760.5206578441523</v>
+        <v>1306.967751495588</v>
       </c>
       <c r="E23" t="n">
-        <v>374.732405245908</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="F23" t="n">
-        <v>374.732405245908</v>
+        <v>792.1468309895099</v>
       </c>
       <c r="G23" t="n">
         <v>374.732405245908</v>
@@ -5989,19 +5989,19 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J23" t="n">
-        <v>53.16404735794277</v>
+        <v>214.6321445117204</v>
       </c>
       <c r="K23" t="n">
-        <v>415.907672952916</v>
+        <v>577.3757701066936</v>
       </c>
       <c r="L23" t="n">
-        <v>918.1998440312284</v>
+        <v>666.18333878006</v>
       </c>
       <c r="M23" t="n">
-        <v>1493.703211168917</v>
+        <v>1000.916161575109</v>
       </c>
       <c r="N23" t="n">
-        <v>1948.091956767636</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O23" t="n">
         <v>2064.320359328654</v>
@@ -6013,28 +6013,28 @@
         <v>2658.202367897139</v>
       </c>
       <c r="R23" t="n">
-        <v>2637.683817986625</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="S23" t="n">
-        <v>2474.025380788536</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="T23" t="n">
-        <v>2474.025380788536</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="U23" t="n">
-        <v>2220.307546015285</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="V23" t="n">
-        <v>2220.307546015285</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="W23" t="n">
-        <v>2220.307546015285</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="X23" t="n">
-        <v>1877.888205367126</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="Y23" t="n">
-        <v>1487.748873391314</v>
+        <v>2051.83329016646</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>974.4657096480562</v>
+        <v>974.4657096480555</v>
       </c>
       <c r="C24" t="n">
-        <v>800.0126803669292</v>
+        <v>800.0126803669285</v>
       </c>
       <c r="D24" t="n">
-        <v>651.0782707056779</v>
+        <v>651.0782707056774</v>
       </c>
       <c r="E24" t="n">
-        <v>491.8408157002224</v>
+        <v>491.8408157002218</v>
       </c>
       <c r="F24" t="n">
-        <v>345.3062577271074</v>
+        <v>345.3062577271069</v>
       </c>
       <c r="G24" t="n">
-        <v>207.6900901492788</v>
+        <v>207.6900901492786</v>
       </c>
       <c r="H24" t="n">
-        <v>105.0862026388846</v>
+        <v>105.0862026388847</v>
       </c>
       <c r="I24" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J24" t="n">
-        <v>155.6399601725249</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K24" t="n">
-        <v>457.408460410703</v>
+        <v>354.9325475961209</v>
       </c>
       <c r="L24" t="n">
-        <v>924.5778458137172</v>
+        <v>454.9699911487105</v>
       </c>
       <c r="M24" t="n">
-        <v>1395.307856745547</v>
+        <v>1052.113850597968</v>
       </c>
       <c r="N24" t="n">
-        <v>1549.414400084757</v>
+        <v>1680.769344537295</v>
       </c>
       <c r="O24" t="n">
         <v>2058.095680968375</v>
@@ -6095,22 +6095,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S24" t="n">
-        <v>2473.52633744136</v>
+        <v>2473.526337441359</v>
       </c>
       <c r="T24" t="n">
-        <v>2275.832596109564</v>
+        <v>2275.832596109563</v>
       </c>
       <c r="U24" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V24" t="n">
-        <v>1812.530202366813</v>
+        <v>1812.530202366812</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.292845638611</v>
+        <v>1558.29284563861</v>
       </c>
       <c r="X24" t="n">
-        <v>1350.441345433078</v>
+        <v>1350.441345433077</v>
       </c>
       <c r="Y24" t="n">
         <v>1142.681046668124</v>
@@ -6168,25 +6168,25 @@
         <v>929.4930737367362</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.711642692724</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="R25" t="n">
-        <v>920.711642692724</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S25" t="n">
-        <v>859.7309367831131</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T25" t="n">
-        <v>859.7309367831131</v>
+        <v>703.237831732459</v>
       </c>
       <c r="U25" t="n">
-        <v>570.5707682929208</v>
+        <v>414.0776632422667</v>
       </c>
       <c r="V25" t="n">
-        <v>570.5707682929208</v>
+        <v>342.5812173949034</v>
       </c>
       <c r="W25" t="n">
-        <v>281.1535982559601</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="X25" t="n">
         <v>53.16404735794277</v>
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>577.1597173203547</v>
+        <v>1651.309144990304</v>
       </c>
       <c r="C26" t="n">
-        <v>577.1597173203547</v>
+        <v>1282.346628049892</v>
       </c>
       <c r="D26" t="n">
-        <v>577.1597173203547</v>
+        <v>1282.346628049892</v>
       </c>
       <c r="E26" t="n">
-        <v>577.1597173203547</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="F26" t="n">
-        <v>185.4499599979102</v>
+        <v>792.1468309895099</v>
       </c>
       <c r="G26" t="n">
-        <v>185.4499599979102</v>
+        <v>374.732405245908</v>
       </c>
       <c r="H26" t="n">
-        <v>185.4499599979102</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I26" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J26" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K26" t="n">
-        <v>577.3757701066936</v>
+        <v>415.907672952916</v>
       </c>
       <c r="L26" t="n">
-        <v>954.1853562804937</v>
+        <v>918.1998440312284</v>
       </c>
       <c r="M26" t="n">
-        <v>1529.688723418182</v>
+        <v>1493.703211168917</v>
       </c>
       <c r="N26" t="n">
-        <v>2099.872339160592</v>
+        <v>2063.886826911326</v>
       </c>
       <c r="O26" t="n">
-        <v>2593.092921171728</v>
+        <v>2557.107408922462</v>
       </c>
       <c r="P26" t="n">
         <v>2657.790172859471</v>
@@ -6250,28 +6250,28 @@
         <v>2658.202367897139</v>
       </c>
       <c r="R26" t="n">
-        <v>2658.202367897139</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="S26" t="n">
-        <v>2494.54393069905</v>
+        <v>2474.025380788536</v>
       </c>
       <c r="T26" t="n">
-        <v>2278.314184944183</v>
+        <v>2257.795635033669</v>
       </c>
       <c r="U26" t="n">
-        <v>2024.596350170931</v>
+        <v>2004.077800260418</v>
       </c>
       <c r="V26" t="n">
-        <v>1693.53346282736</v>
+        <v>2004.077800260418</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.764807557246</v>
+        <v>1651.309144990304</v>
       </c>
       <c r="X26" t="n">
-        <v>967.2990492961665</v>
+        <v>1651.309144990304</v>
       </c>
       <c r="Y26" t="n">
-        <v>577.1597173203547</v>
+        <v>1651.309144990304</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>974.4657096480555</v>
+        <v>974.4657096480563</v>
       </c>
       <c r="C27" t="n">
-        <v>800.0126803669285</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D27" t="n">
-        <v>651.0782707056774</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E27" t="n">
-        <v>491.8408157002218</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F27" t="n">
-        <v>345.3062577271069</v>
+        <v>345.3062577271076</v>
       </c>
       <c r="G27" t="n">
-        <v>207.6900901492786</v>
+        <v>207.690090149279</v>
       </c>
       <c r="H27" t="n">
         <v>105.0862026388847</v>
@@ -6317,7 +6317,7 @@
         <v>1419.245792448392</v>
       </c>
       <c r="N27" t="n">
-        <v>1939.338096168719</v>
+        <v>1573.352335787602</v>
       </c>
       <c r="O27" t="n">
         <v>2058.095680968375</v>
@@ -6332,22 +6332,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S27" t="n">
-        <v>2473.526337441359</v>
+        <v>2473.52633744136</v>
       </c>
       <c r="T27" t="n">
-        <v>2275.832596109563</v>
+        <v>2275.832596109564</v>
       </c>
       <c r="U27" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V27" t="n">
-        <v>1812.530202366812</v>
+        <v>1812.530202366813</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.29284563861</v>
+        <v>1558.292845638611</v>
       </c>
       <c r="X27" t="n">
-        <v>1350.441345433077</v>
+        <v>1350.441345433078</v>
       </c>
       <c r="Y27" t="n">
         <v>1142.681046668124</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.16404735794277</v>
+        <v>747.8446089064964</v>
       </c>
       <c r="C28" t="n">
-        <v>53.16404735794277</v>
+        <v>578.9084259785895</v>
       </c>
       <c r="D28" t="n">
-        <v>53.16404735794277</v>
+        <v>506.3927318160402</v>
       </c>
       <c r="E28" t="n">
-        <v>53.16404735794277</v>
+        <v>506.3927318160402</v>
       </c>
       <c r="F28" t="n">
-        <v>53.16404735794277</v>
+        <v>506.3927318160402</v>
       </c>
       <c r="G28" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="H28" t="n">
-        <v>53.16404735794277</v>
+        <v>182.0820154037277</v>
       </c>
       <c r="I28" t="n">
         <v>53.16404735794277</v>
@@ -6405,31 +6405,31 @@
         <v>929.4930737367362</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.711642692724</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="R28" t="n">
-        <v>783.645553462952</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S28" t="n">
-        <v>573.6518030302445</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T28" t="n">
-        <v>528.6411147073597</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="U28" t="n">
-        <v>528.6411147073597</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="V28" t="n">
-        <v>273.9566265014729</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="W28" t="n">
-        <v>273.9566265014729</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="X28" t="n">
-        <v>273.9566265014729</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.16404735794277</v>
+        <v>929.4930737367362</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1672.754992214139</v>
+        <v>961.1300843482625</v>
       </c>
       <c r="C29" t="n">
-        <v>1303.792475273727</v>
+        <v>961.1300843482625</v>
       </c>
       <c r="D29" t="n">
-        <v>1303.792475273727</v>
+        <v>602.864385741512</v>
       </c>
       <c r="E29" t="n">
-        <v>918.0042226754831</v>
+        <v>602.864385741512</v>
       </c>
       <c r="F29" t="n">
-        <v>507.0183178858755</v>
+        <v>602.864385741512</v>
       </c>
       <c r="G29" t="n">
-        <v>507.0183178858755</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="H29" t="n">
         <v>185.4499599979102</v>
@@ -6463,52 +6463,52 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J29" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K29" t="n">
-        <v>577.3757701066936</v>
+        <v>415.907672952916</v>
       </c>
       <c r="L29" t="n">
-        <v>1079.667941185006</v>
+        <v>918.1998440312284</v>
       </c>
       <c r="M29" t="n">
-        <v>1655.171308322695</v>
+        <v>1493.703211168917</v>
       </c>
       <c r="N29" t="n">
-        <v>1792.38146889724</v>
+        <v>2063.886826911326</v>
       </c>
       <c r="O29" t="n">
-        <v>2285.602050908376</v>
+        <v>2557.107408922462</v>
       </c>
       <c r="P29" t="n">
-        <v>2447.598332106165</v>
+        <v>2657.790172859471</v>
       </c>
       <c r="Q29" t="n">
         <v>2658.202367897139</v>
       </c>
       <c r="R29" t="n">
-        <v>2658.202367897139</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="S29" t="n">
-        <v>2494.54393069905</v>
+        <v>2474.025380788536</v>
       </c>
       <c r="T29" t="n">
-        <v>2494.54393069905</v>
+        <v>2257.795635033669</v>
       </c>
       <c r="U29" t="n">
-        <v>2240.826095925798</v>
+        <v>2004.077800260418</v>
       </c>
       <c r="V29" t="n">
-        <v>1909.763208582227</v>
+        <v>1673.014912916847</v>
       </c>
       <c r="W29" t="n">
-        <v>1909.763208582227</v>
+        <v>1320.246257646733</v>
       </c>
       <c r="X29" t="n">
-        <v>1909.763208582227</v>
+        <v>1320.246257646733</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.754992214139</v>
+        <v>1320.246257646733</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>974.4657096480562</v>
+        <v>974.4657096480563</v>
       </c>
       <c r="C30" t="n">
-        <v>800.0126803669292</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D30" t="n">
-        <v>651.0782707056779</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E30" t="n">
-        <v>491.8408157002224</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F30" t="n">
         <v>345.3062577271076</v>
@@ -6548,13 +6548,13 @@
         <v>457.408460410703</v>
       </c>
       <c r="L30" t="n">
-        <v>557.4459039632926</v>
+        <v>924.5778458137172</v>
       </c>
       <c r="M30" t="n">
-        <v>1154.58976341255</v>
+        <v>1310.682602229392</v>
       </c>
       <c r="N30" t="n">
-        <v>1783.245257351877</v>
+        <v>1939.338096168719</v>
       </c>
       <c r="O30" t="n">
         <v>2058.095680968375</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="C31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="D31" t="n">
-        <v>200.0539948558531</v>
+        <v>801.1957728963437</v>
       </c>
       <c r="E31" t="n">
-        <v>200.0539948558531</v>
+        <v>653.2826793139506</v>
       </c>
       <c r="F31" t="n">
-        <v>53.16404735794277</v>
+        <v>506.3927318160402</v>
       </c>
       <c r="G31" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="H31" t="n">
-        <v>53.16404735794277</v>
+        <v>182.0820154037277</v>
       </c>
       <c r="I31" t="n">
         <v>53.16404735794277</v>
@@ -6645,28 +6645,28 @@
         <v>929.4930737367362</v>
       </c>
       <c r="R31" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S31" t="n">
-        <v>582.4332340742567</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T31" t="n">
-        <v>356.1779920699795</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="U31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="V31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="W31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="X31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="Y31" t="n">
-        <v>350.1706342681888</v>
+        <v>929.4930737367362</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>930.1069256709213</v>
+        <v>1013.85029053112</v>
       </c>
       <c r="C32" t="n">
-        <v>930.1069256709213</v>
+        <v>1013.85029053112</v>
       </c>
       <c r="D32" t="n">
-        <v>849.9382047457946</v>
+        <v>1013.85029053112</v>
       </c>
       <c r="E32" t="n">
-        <v>464.1499521475503</v>
+        <v>1013.85029053112</v>
       </c>
       <c r="F32" t="n">
-        <v>53.16404735794277</v>
+        <v>602.864385741512</v>
       </c>
       <c r="G32" t="n">
-        <v>53.16404735794277</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="H32" t="n">
-        <v>53.16404735794277</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="I32" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J32" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K32" t="n">
-        <v>256.4718116612406</v>
+        <v>95.00371450746292</v>
       </c>
       <c r="L32" t="n">
-        <v>758.7639827395529</v>
+        <v>425.4127944374203</v>
       </c>
       <c r="M32" t="n">
-        <v>1334.267349877241</v>
+        <v>1000.916161575109</v>
       </c>
       <c r="N32" t="n">
-        <v>1904.450965619651</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O32" t="n">
-        <v>2397.671547630787</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P32" t="n">
-        <v>2657.790172859471</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q32" t="n">
         <v>2658.202367897139</v>
       </c>
       <c r="R32" t="n">
-        <v>2637.683817986625</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="S32" t="n">
-        <v>2474.025380788536</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="T32" t="n">
-        <v>2257.795635033669</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="U32" t="n">
-        <v>2004.077800260418</v>
+        <v>2516.823876102247</v>
       </c>
       <c r="V32" t="n">
-        <v>1673.014912916847</v>
+        <v>2516.823876102247</v>
       </c>
       <c r="W32" t="n">
-        <v>1320.246257646733</v>
+        <v>2164.055220832133</v>
       </c>
       <c r="X32" t="n">
-        <v>1320.246257646733</v>
+        <v>1790.589462571053</v>
       </c>
       <c r="Y32" t="n">
-        <v>930.1069256709213</v>
+        <v>1400.450130595241</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>974.4657096480562</v>
+        <v>974.4657096480555</v>
       </c>
       <c r="C33" t="n">
-        <v>800.0126803669292</v>
+        <v>800.0126803669285</v>
       </c>
       <c r="D33" t="n">
-        <v>651.0782707056779</v>
+        <v>651.0782707056774</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8408157002224</v>
+        <v>491.8408157002218</v>
       </c>
       <c r="F33" t="n">
-        <v>345.3062577271074</v>
+        <v>345.3062577271069</v>
       </c>
       <c r="G33" t="n">
-        <v>207.6900901492788</v>
+        <v>207.6900901492786</v>
       </c>
       <c r="H33" t="n">
-        <v>105.0862026388846</v>
+        <v>105.0862026388847</v>
       </c>
       <c r="I33" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J33" t="n">
-        <v>155.6399601725249</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K33" t="n">
-        <v>457.408460410703</v>
+        <v>171.7238022466963</v>
       </c>
       <c r="L33" t="n">
-        <v>924.5778458137172</v>
+        <v>638.8931876497105</v>
       </c>
       <c r="M33" t="n">
-        <v>1521.721705262974</v>
+        <v>1236.037047098968</v>
       </c>
       <c r="N33" t="n">
-        <v>1675.828248602184</v>
+        <v>1864.692541038295</v>
       </c>
       <c r="O33" t="n">
-        <v>2058.095680968375</v>
+        <v>2373.373821921913</v>
       </c>
       <c r="P33" t="n">
         <v>2449.354187333978</v>
@@ -6806,22 +6806,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S33" t="n">
-        <v>2473.52633744136</v>
+        <v>2473.526337441359</v>
       </c>
       <c r="T33" t="n">
-        <v>2275.832596109564</v>
+        <v>2275.832596109563</v>
       </c>
       <c r="U33" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V33" t="n">
-        <v>1812.530202366813</v>
+        <v>1812.530202366812</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.292845638611</v>
+        <v>1558.29284563861</v>
       </c>
       <c r="X33" t="n">
-        <v>1350.441345433078</v>
+        <v>1350.441345433077</v>
       </c>
       <c r="Y33" t="n">
         <v>1142.681046668124</v>
@@ -6879,28 +6879,28 @@
         <v>929.4930737367362</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.711642692724</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="R34" t="n">
-        <v>783.645553462952</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S34" t="n">
-        <v>573.6518030302445</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T34" t="n">
-        <v>347.3965610259673</v>
+        <v>886.4258740909825</v>
       </c>
       <c r="U34" t="n">
-        <v>347.3965610259673</v>
+        <v>597.2657056007903</v>
       </c>
       <c r="V34" t="n">
-        <v>347.3965610259673</v>
+        <v>342.5812173949034</v>
       </c>
       <c r="W34" t="n">
-        <v>57.97939098900673</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="X34" t="n">
-        <v>57.97939098900673</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="Y34" t="n">
         <v>53.16404735794277</v>
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.335862432509</v>
+        <v>1377.389235609758</v>
       </c>
       <c r="C35" t="n">
-        <v>393.5454801202281</v>
+        <v>1008.426718669347</v>
       </c>
       <c r="D35" t="n">
-        <v>35.2797815134776</v>
+        <v>650.1610200625962</v>
       </c>
       <c r="E35" t="n">
-        <v>35.2797815134776</v>
+        <v>264.372767464352</v>
       </c>
       <c r="F35" t="n">
-        <v>35.2797815134776</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="G35" t="n">
-        <v>35.2797815134776</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="H35" t="n">
-        <v>35.2797815134776</v>
+        <v>167.5656941534451</v>
       </c>
       <c r="I35" t="n">
         <v>35.2797815134776</v>
       </c>
       <c r="J35" t="n">
-        <v>35.2797815134776</v>
+        <v>196.7478786672552</v>
       </c>
       <c r="K35" t="n">
-        <v>398.0234071084508</v>
+        <v>559.4915042622285</v>
       </c>
       <c r="L35" t="n">
-        <v>486.8309757818173</v>
+        <v>648.2990729355949</v>
       </c>
       <c r="M35" t="n">
-        <v>617.3159447616017</v>
+        <v>778.7840419153792</v>
       </c>
       <c r="N35" t="n">
-        <v>1053.878664544378</v>
+        <v>915.9942024899245</v>
       </c>
       <c r="O35" t="n">
         <v>1170.107067105395</v>
@@ -6961,28 +6961,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R35" t="n">
-        <v>1743.470525763367</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S35" t="n">
-        <v>1579.812088565278</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T35" t="n">
-        <v>1363.582342810411</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U35" t="n">
-        <v>1109.86450803716</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="V35" t="n">
-        <v>778.8016206935889</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="W35" t="n">
-        <v>778.8016206935889</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="X35" t="n">
-        <v>405.335862432509</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="Y35" t="n">
-        <v>405.335862432509</v>
+        <v>1763.98907567388</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>80.25241742479739</v>
+        <v>320.066884021511</v>
       </c>
       <c r="C36" t="n">
-        <v>80.25241742479739</v>
+        <v>320.066884021511</v>
       </c>
       <c r="D36" t="n">
-        <v>80.25241742479739</v>
+        <v>297.1211240293273</v>
       </c>
       <c r="E36" t="n">
-        <v>80.25241742479739</v>
+        <v>137.8836690238719</v>
       </c>
       <c r="F36" t="n">
-        <v>80.25241742479739</v>
+        <v>137.8836690238719</v>
       </c>
       <c r="G36" t="n">
-        <v>80.25241742479739</v>
+        <v>137.8836690238719</v>
       </c>
       <c r="H36" t="n">
-        <v>80.25241742479739</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I36" t="n">
         <v>35.2797815134776</v>
@@ -7019,16 +7019,16 @@
         <v>35.2797815134776</v>
       </c>
       <c r="K36" t="n">
-        <v>75.22769710920286</v>
+        <v>337.0482817516557</v>
       </c>
       <c r="L36" t="n">
-        <v>511.8149933384882</v>
+        <v>773.635577980941</v>
       </c>
       <c r="M36" t="n">
-        <v>948.4022895677736</v>
+        <v>909.7314243176984</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.508832906983</v>
+        <v>1063.837967656907</v>
       </c>
       <c r="O36" t="n">
         <v>1371.858903603607</v>
@@ -7040,28 +7040,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R36" t="n">
-        <v>1732.026109282699</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S36" t="n">
-        <v>1579.313045218101</v>
+        <v>1611.276011609282</v>
       </c>
       <c r="T36" t="n">
-        <v>1381.619303886305</v>
+        <v>1413.582270277486</v>
       </c>
       <c r="U36" t="n">
-        <v>1153.469018375296</v>
+        <v>1185.431984766477</v>
       </c>
       <c r="V36" t="n">
-        <v>918.3169101435537</v>
+        <v>950.2798765347345</v>
       </c>
       <c r="W36" t="n">
-        <v>664.0795534153522</v>
+        <v>696.0425198065329</v>
       </c>
       <c r="X36" t="n">
-        <v>456.2280532098193</v>
+        <v>696.0425198065329</v>
       </c>
       <c r="Y36" t="n">
-        <v>248.4677544448654</v>
+        <v>488.282221041579</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.2797815134776</v>
+        <v>729.9603430620313</v>
       </c>
       <c r="C37" t="n">
-        <v>35.2797815134776</v>
+        <v>561.0241601341244</v>
       </c>
       <c r="D37" t="n">
-        <v>35.2797815134776</v>
+        <v>498.8361888427182</v>
       </c>
       <c r="E37" t="n">
-        <v>35.2797815134776</v>
+        <v>350.9230952603251</v>
       </c>
       <c r="F37" t="n">
-        <v>35.2797815134776</v>
+        <v>204.0331477624147</v>
       </c>
       <c r="G37" t="n">
         <v>35.2797815134776</v>
@@ -7116,31 +7116,31 @@
         <v>911.608807892271</v>
       </c>
       <c r="Q37" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="R37" t="n">
-        <v>765.7612876184869</v>
+        <v>911.608807892271</v>
       </c>
       <c r="S37" t="n">
-        <v>555.7675371857795</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T37" t="n">
-        <v>555.7675371857795</v>
+        <v>911.608807892271</v>
       </c>
       <c r="U37" t="n">
-        <v>266.6073686955872</v>
+        <v>911.608807892271</v>
       </c>
       <c r="V37" t="n">
-        <v>266.6073686955872</v>
+        <v>911.608807892271</v>
       </c>
       <c r="W37" t="n">
-        <v>266.6073686955872</v>
+        <v>911.608807892271</v>
       </c>
       <c r="X37" t="n">
-        <v>266.6073686955872</v>
+        <v>911.608807892271</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.81478955205714</v>
+        <v>911.608807892271</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>779.3337327184723</v>
+        <v>426.0329654234748</v>
       </c>
       <c r="C38" t="n">
-        <v>779.3337327184723</v>
+        <v>426.0329654234748</v>
       </c>
       <c r="D38" t="n">
-        <v>421.0680341117218</v>
+        <v>67.76726681672426</v>
       </c>
       <c r="E38" t="n">
-        <v>35.2797815134776</v>
+        <v>67.76726681672426</v>
       </c>
       <c r="F38" t="n">
-        <v>35.2797815134776</v>
+        <v>67.76726681672426</v>
       </c>
       <c r="G38" t="n">
-        <v>35.2797815134776</v>
+        <v>67.76726681672426</v>
       </c>
       <c r="H38" t="n">
         <v>35.2797815134776</v>
@@ -7180,19 +7180,19 @@
         <v>559.4915042622285</v>
       </c>
       <c r="L38" t="n">
-        <v>805.3871204250759</v>
+        <v>688.4948759153531</v>
       </c>
       <c r="M38" t="n">
-        <v>935.8720894048602</v>
+        <v>1125.082172144638</v>
       </c>
       <c r="N38" t="n">
-        <v>1372.459385634146</v>
+        <v>1262.292332719184</v>
       </c>
       <c r="O38" t="n">
-        <v>1488.687788195163</v>
+        <v>1698.879628948469</v>
       </c>
       <c r="P38" t="n">
-        <v>1553.385039882907</v>
+        <v>1763.576880636213</v>
       </c>
       <c r="Q38" t="n">
         <v>1763.98907567388</v>
@@ -7201,25 +7201,25 @@
         <v>1743.470525763367</v>
       </c>
       <c r="S38" t="n">
-        <v>1743.470525763367</v>
+        <v>1579.812088565278</v>
       </c>
       <c r="T38" t="n">
-        <v>1527.2407800085</v>
+        <v>1363.582342810411</v>
       </c>
       <c r="U38" t="n">
-        <v>1527.2407800085</v>
+        <v>1109.86450803716</v>
       </c>
       <c r="V38" t="n">
-        <v>1196.177892664929</v>
+        <v>778.8016206935889</v>
       </c>
       <c r="W38" t="n">
-        <v>843.4092373948149</v>
+        <v>426.0329654234748</v>
       </c>
       <c r="X38" t="n">
-        <v>843.4092373948149</v>
+        <v>426.0329654234748</v>
       </c>
       <c r="Y38" t="n">
-        <v>779.3337327184723</v>
+        <v>426.0329654234748</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321.8303587525575</v>
+        <v>655.52084303914</v>
       </c>
       <c r="C39" t="n">
-        <v>321.8303587525575</v>
+        <v>481.067813758013</v>
       </c>
       <c r="D39" t="n">
-        <v>172.8959490913062</v>
+        <v>332.1334040967617</v>
       </c>
       <c r="E39" t="n">
         <v>172.8959490913062</v>
@@ -7253,25 +7253,25 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J39" t="n">
-        <v>137.7556943280597</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K39" t="n">
-        <v>369.8526473507365</v>
+        <v>75.22769710920286</v>
       </c>
       <c r="L39" t="n">
-        <v>469.8900909033262</v>
+        <v>511.8149933384882</v>
       </c>
       <c r="M39" t="n">
-        <v>605.9859372400836</v>
+        <v>948.4022895677736</v>
       </c>
       <c r="N39" t="n">
-        <v>1042.573233469369</v>
+        <v>1102.508832906983</v>
       </c>
       <c r="O39" t="n">
-        <v>1479.160529698654</v>
+        <v>1371.858903603607</v>
       </c>
       <c r="P39" t="n">
-        <v>1555.14089511072</v>
+        <v>1763.11740996921</v>
       </c>
       <c r="Q39" t="n">
         <v>1763.98907567388</v>
@@ -7280,25 +7280,25 @@
         <v>1732.026109282699</v>
       </c>
       <c r="S39" t="n">
-        <v>1579.313045218101</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="T39" t="n">
-        <v>1381.619303886305</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="U39" t="n">
-        <v>1153.469018375296</v>
+        <v>1306.182082439895</v>
       </c>
       <c r="V39" t="n">
-        <v>1153.469018375296</v>
+        <v>1306.182082439895</v>
       </c>
       <c r="W39" t="n">
-        <v>905.6574947431122</v>
+        <v>1051.944725711693</v>
       </c>
       <c r="X39" t="n">
-        <v>697.8059945375794</v>
+        <v>1031.496478824162</v>
       </c>
       <c r="Y39" t="n">
-        <v>490.0456957726255</v>
+        <v>823.736180059208</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.2797815134776</v>
+        <v>826.5564138484259</v>
       </c>
       <c r="C40" t="n">
-        <v>35.2797815134776</v>
+        <v>657.620230920519</v>
       </c>
       <c r="D40" t="n">
-        <v>35.2797815134776</v>
+        <v>507.5035915081833</v>
       </c>
       <c r="E40" t="n">
-        <v>35.2797815134776</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="F40" t="n">
-        <v>35.2797815134776</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="G40" t="n">
-        <v>35.2797815134776</v>
+        <v>190.837131676853</v>
       </c>
       <c r="H40" t="n">
         <v>35.2797815134776</v>
@@ -7353,31 +7353,31 @@
         <v>911.608807892271</v>
       </c>
       <c r="Q40" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="R40" t="n">
-        <v>765.7612876184869</v>
+        <v>911.608807892271</v>
       </c>
       <c r="S40" t="n">
-        <v>555.7675371857795</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T40" t="n">
-        <v>555.7675371857795</v>
+        <v>826.5564138484259</v>
       </c>
       <c r="U40" t="n">
-        <v>266.6073686955872</v>
+        <v>826.5564138484259</v>
       </c>
       <c r="V40" t="n">
-        <v>256.0723606570077</v>
+        <v>826.5564138484259</v>
       </c>
       <c r="W40" t="n">
-        <v>256.0723606570077</v>
+        <v>826.5564138484259</v>
       </c>
       <c r="X40" t="n">
-        <v>256.0723606570077</v>
+        <v>826.5564138484259</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.2797815134776</v>
+        <v>826.5564138484259</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>719.7251760613465</v>
+        <v>1249.468364644931</v>
       </c>
       <c r="C41" t="n">
-        <v>393.5454801202281</v>
+        <v>1249.468364644931</v>
       </c>
       <c r="D41" t="n">
-        <v>35.27978151347757</v>
+        <v>1249.468364644931</v>
       </c>
       <c r="E41" t="n">
-        <v>35.27978151347757</v>
+        <v>863.680112046687</v>
       </c>
       <c r="F41" t="n">
-        <v>35.27978151347757</v>
+        <v>452.6942072570794</v>
       </c>
       <c r="G41" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H41" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I41" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J41" t="n">
         <v>196.7478786672552</v>
       </c>
       <c r="K41" t="n">
-        <v>349.5962387607617</v>
+        <v>559.4915042622285</v>
       </c>
       <c r="L41" t="n">
-        <v>786.1835349900466</v>
+        <v>648.2990729355949</v>
       </c>
       <c r="M41" t="n">
-        <v>916.668503969831</v>
+        <v>1084.88636916488</v>
       </c>
       <c r="N41" t="n">
-        <v>1053.878664544376</v>
+        <v>1222.096529739425</v>
       </c>
       <c r="O41" t="n">
-        <v>1170.107067105394</v>
+        <v>1338.324932300443</v>
       </c>
       <c r="P41" t="n">
-        <v>1553.385039882905</v>
+        <v>1553.385039882907</v>
       </c>
       <c r="Q41" t="n">
-        <v>1763.989075673879</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="R41" t="n">
-        <v>1743.470525763365</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S41" t="n">
-        <v>1579.812088565277</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T41" t="n">
-        <v>1363.58234281041</v>
+        <v>1636.068204709053</v>
       </c>
       <c r="U41" t="n">
-        <v>1109.864508037158</v>
+        <v>1636.068204709053</v>
       </c>
       <c r="V41" t="n">
-        <v>1109.864508037158</v>
+        <v>1636.068204709053</v>
       </c>
       <c r="W41" t="n">
-        <v>1109.864508037158</v>
+        <v>1636.068204709053</v>
       </c>
       <c r="X41" t="n">
-        <v>1109.864508037158</v>
+        <v>1636.068204709053</v>
       </c>
       <c r="Y41" t="n">
-        <v>719.7251760613465</v>
+        <v>1636.068204709053</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>802.0554010122549</v>
+        <v>517.9046754613114</v>
       </c>
       <c r="C42" t="n">
-        <v>627.602371731128</v>
+        <v>343.4516461801844</v>
       </c>
       <c r="D42" t="n">
-        <v>478.6679620698768</v>
+        <v>194.5172365189331</v>
       </c>
       <c r="E42" t="n">
-        <v>319.4305070644212</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F42" t="n">
-        <v>172.8959490913062</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G42" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H42" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I42" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J42" t="n">
         <v>137.7556943280597</v>
@@ -7496,46 +7496,46 @@
         <v>177.703609923785</v>
       </c>
       <c r="L42" t="n">
-        <v>614.29090615307</v>
+        <v>454.4309643769661</v>
       </c>
       <c r="M42" t="n">
-        <v>750.3867524898274</v>
+        <v>891.0182606062514</v>
       </c>
       <c r="N42" t="n">
-        <v>1045.124803945459</v>
+        <v>1045.12480394546</v>
       </c>
       <c r="O42" t="n">
-        <v>1163.882388745115</v>
+        <v>1163.882388745116</v>
       </c>
       <c r="P42" t="n">
-        <v>1555.140895110718</v>
+        <v>1555.14089511072</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.989075673879</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="R42" t="n">
-        <v>1732.026109282698</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S42" t="n">
-        <v>1579.3130452181</v>
+        <v>1611.276011609282</v>
       </c>
       <c r="T42" t="n">
-        <v>1381.619303886304</v>
+        <v>1413.582270277486</v>
       </c>
       <c r="U42" t="n">
-        <v>1153.469018375295</v>
+        <v>1185.431984766477</v>
       </c>
       <c r="V42" t="n">
-        <v>1153.469018375295</v>
+        <v>1185.431984766477</v>
       </c>
       <c r="W42" t="n">
-        <v>1153.469018375295</v>
+        <v>931.1946280382756</v>
       </c>
       <c r="X42" t="n">
-        <v>945.6175181697622</v>
+        <v>723.3431278327428</v>
       </c>
       <c r="Y42" t="n">
-        <v>802.0554010122549</v>
+        <v>517.9046754613114</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>204.2159644413845</v>
+        <v>480.0238799850797</v>
       </c>
       <c r="C43" t="n">
-        <v>35.27978151347757</v>
+        <v>311.0876970571728</v>
       </c>
       <c r="D43" t="n">
-        <v>35.27978151347757</v>
+        <v>311.0876970571728</v>
       </c>
       <c r="E43" t="n">
-        <v>35.27978151347757</v>
+        <v>311.0876970571728</v>
       </c>
       <c r="F43" t="n">
-        <v>35.27978151347757</v>
+        <v>164.1977495592625</v>
       </c>
       <c r="G43" t="n">
-        <v>35.27978151347757</v>
+        <v>164.1977495592625</v>
       </c>
       <c r="H43" t="n">
-        <v>35.27978151347757</v>
+        <v>164.1977495592625</v>
       </c>
       <c r="I43" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J43" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K43" t="n">
         <v>119.6433663225604</v>
@@ -7596,25 +7596,25 @@
         <v>902.8273768482588</v>
       </c>
       <c r="S43" t="n">
-        <v>692.8336264155514</v>
+        <v>902.8273768482588</v>
       </c>
       <c r="T43" t="n">
-        <v>493.3761329315767</v>
+        <v>902.8273768482588</v>
       </c>
       <c r="U43" t="n">
-        <v>204.2159644413845</v>
+        <v>889.6618957133368</v>
       </c>
       <c r="V43" t="n">
-        <v>204.2159644413845</v>
+        <v>889.6618957133368</v>
       </c>
       <c r="W43" t="n">
-        <v>204.2159644413845</v>
+        <v>889.6618957133368</v>
       </c>
       <c r="X43" t="n">
-        <v>204.2159644413845</v>
+        <v>661.6723448153194</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.2159644413845</v>
+        <v>661.6723448153194</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>770.9027455663913</v>
+        <v>762.5079970606398</v>
       </c>
       <c r="C44" t="n">
-        <v>770.9027455663913</v>
+        <v>393.5454801202281</v>
       </c>
       <c r="D44" t="n">
-        <v>770.9027455663913</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="E44" t="n">
-        <v>770.9027455663913</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F44" t="n">
-        <v>770.9027455663913</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G44" t="n">
-        <v>353.4883198227895</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H44" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I44" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J44" t="n">
-        <v>35.27978151347757</v>
+        <v>196.7478786672552</v>
       </c>
       <c r="K44" t="n">
-        <v>239.4291858458002</v>
+        <v>559.4915042622285</v>
       </c>
       <c r="L44" t="n">
-        <v>676.0164820750852</v>
+        <v>648.2990729355949</v>
       </c>
       <c r="M44" t="n">
-        <v>806.5014510548696</v>
+        <v>778.7840419153792</v>
       </c>
       <c r="N44" t="n">
-        <v>943.7116116294148</v>
+        <v>915.9942024899245</v>
       </c>
       <c r="O44" t="n">
-        <v>1380.2989078587</v>
+        <v>1352.58149871921</v>
       </c>
       <c r="P44" t="n">
-        <v>1763.576880636211</v>
+        <v>1735.859471496721</v>
       </c>
       <c r="Q44" t="n">
-        <v>1763.989075673879</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="R44" t="n">
-        <v>1763.989075673879</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="S44" t="n">
-        <v>1763.989075673879</v>
+        <v>1579.812088565278</v>
       </c>
       <c r="T44" t="n">
-        <v>1763.989075673879</v>
+        <v>1363.582342810411</v>
       </c>
       <c r="U44" t="n">
-        <v>1510.271240900627</v>
+        <v>1363.582342810411</v>
       </c>
       <c r="V44" t="n">
-        <v>1510.271240900627</v>
+        <v>1363.582342810411</v>
       </c>
       <c r="W44" t="n">
-        <v>1157.502585630513</v>
+        <v>1363.582342810411</v>
       </c>
       <c r="X44" t="n">
-        <v>1157.502585630513</v>
+        <v>990.1165845493313</v>
       </c>
       <c r="Y44" t="n">
-        <v>1157.502585630513</v>
+        <v>990.1165845493313</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>638.5107230267231</v>
+        <v>956.5814438035912</v>
       </c>
       <c r="C45" t="n">
-        <v>464.0576937455961</v>
+        <v>782.1284145224643</v>
       </c>
       <c r="D45" t="n">
-        <v>315.1232840843448</v>
+        <v>633.194004861213</v>
       </c>
       <c r="E45" t="n">
-        <v>315.1232840843448</v>
+        <v>473.9565498557574</v>
       </c>
       <c r="F45" t="n">
-        <v>315.1232840843448</v>
+        <v>327.4219918826424</v>
       </c>
       <c r="G45" t="n">
         <v>189.8058243048138</v>
       </c>
       <c r="H45" t="n">
-        <v>87.20193679441954</v>
+        <v>87.20193679441957</v>
       </c>
       <c r="I45" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J45" t="n">
-        <v>137.7556943280597</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K45" t="n">
-        <v>262.5510212556888</v>
+        <v>337.0482817516557</v>
       </c>
       <c r="L45" t="n">
-        <v>362.5884648082784</v>
+        <v>437.0857253042453</v>
       </c>
       <c r="M45" t="n">
-        <v>498.6843111450359</v>
+        <v>873.6730215335306</v>
       </c>
       <c r="N45" t="n">
-        <v>935.2716073743209</v>
+        <v>1027.77956487274</v>
       </c>
       <c r="O45" t="n">
-        <v>1371.858903603606</v>
+        <v>1163.882388745116</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.117409969209</v>
+        <v>1555.14089511072</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.989075673879</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="R45" t="n">
-        <v>1732.026109282698</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S45" t="n">
-        <v>1732.026109282698</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="T45" t="n">
-        <v>1732.026109282698</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="U45" t="n">
-        <v>1503.875823771689</v>
+        <v>1503.875823771691</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.723715539947</v>
+        <v>1503.875823771691</v>
       </c>
       <c r="W45" t="n">
-        <v>1014.486358811745</v>
+        <v>1249.638467043489</v>
       </c>
       <c r="X45" t="n">
-        <v>1014.486358811745</v>
+        <v>1124.796780823659</v>
       </c>
       <c r="Y45" t="n">
-        <v>806.7260600467912</v>
+        <v>1124.796780823659</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.4008182542715</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="C46" t="n">
-        <v>175.4008182542715</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="D46" t="n">
-        <v>175.4008182542715</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="E46" t="n">
-        <v>175.4008182542715</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F46" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G46" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H46" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I46" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="J46" t="n">
-        <v>35.27978151347757</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K46" t="n">
         <v>119.6433663225604</v>
@@ -7833,25 +7833,25 @@
         <v>911.608807892271</v>
       </c>
       <c r="S46" t="n">
-        <v>911.608807892271</v>
+        <v>805.3796802138339</v>
       </c>
       <c r="T46" t="n">
-        <v>685.3535658879938</v>
+        <v>579.1244382095567</v>
       </c>
       <c r="U46" t="n">
-        <v>396.1933973978016</v>
+        <v>289.9642697193645</v>
       </c>
       <c r="V46" t="n">
-        <v>396.1933973978016</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="W46" t="n">
-        <v>396.1933973978016</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="X46" t="n">
-        <v>396.1933973978016</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.4008182542715</v>
+        <v>35.2797815134776</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.997527137954989</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>87.33027369883149</v>
+        <v>158.2025637752657</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>141.4427005834702</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>22.58001229537638</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K12" t="n">
-        <v>183.2018931611427</v>
+        <v>42.98499674710131</v>
       </c>
       <c r="L12" t="n">
-        <v>69.86039132180773</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>80.04375917612312</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>136.5461763246169</v>
       </c>
       <c r="L14" t="n">
-        <v>133.8487082342324</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>91.75032408633558</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>22.58001229537638</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>122.5054002754211</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>86.08277120050417</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.4741130070253</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>149.5512614379178</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.997527137954933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>181.2910330057943</v>
+        <v>136.5461763246171</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>118.3542313529416</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>49.54072981037991</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>122.5054002754211</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>42.98499674710126</v>
       </c>
       <c r="O18" t="n">
-        <v>103.5961666925256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,16 +9403,16 @@
         <v>5.997527137954933</v>
       </c>
       <c r="K20" t="n">
-        <v>181.2910330057943</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>133.8487082342324</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>91.75032408633552</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>74.046232038168</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.3542313529416</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>122.5054002754211</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>103.5961666925257</v>
       </c>
       <c r="P21" t="n">
-        <v>26.96071751500365</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>149.4661177904246</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.997527137954933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>206.3109634497621</v>
       </c>
       <c r="N23" t="n">
-        <v>320.3824091153274</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9716,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>338.0143076717908</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>261.1805572034584</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>290.9111287883168</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>36.34900227198536</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>369.6825862435528</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>369.6825862435527</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10123,16 +10123,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>98.28184798994579</v>
+        <v>36.34900227198536</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10196,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>252.5342526049668</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>157.669534158426</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>244.0419305622131</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10366,10 +10366,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>197.3953268090311</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>79.40589827578616</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>266.1715631985204</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.997527137954933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>302.3763224325563</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>139.2772343984375</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10667,19 +10667,19 @@
         <v>22.58001229537635</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>339.9493461380764</v>
       </c>
       <c r="M36" t="n">
-        <v>303.5267170631595</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>152.1136221181499</v>
+        <v>191.1751021687308</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10828,22 +10828,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>158.6747954439201</v>
+        <v>40.60182119167484</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>309.1942699489908</v>
       </c>
       <c r="N38" t="n">
-        <v>302.401147126</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>323.5948420891592</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K39" t="n">
-        <v>194.0899367949005</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>339.9493461380764</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>303.5267170631595</v>
       </c>
       <c r="N39" t="n">
-        <v>285.3340938283599</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>321.040112555181</v>
+        <v>152.1136221181499</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>112.1299928727134</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>351.2926540968874</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>309.1942699489908</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>151.8816726209294</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>339.9493461380761</v>
+        <v>178.4746574753449</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>303.5267170631595</v>
       </c>
       <c r="N42" t="n">
-        <v>142.0520284004269</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.997527137954933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>163.9492294775783</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>351.2926540968874</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>323.5948420891589</v>
+        <v>323.5948420891592</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>27.99738296918306</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K45" t="n">
-        <v>85.70445589081191</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>303.5267170631595</v>
       </c>
       <c r="N45" t="n">
-        <v>285.3340938283595</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>321.0401125551807</v>
+        <v>17.52044350779866</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>141.7195687151929</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>183.3227226858968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H11" t="n">
-        <v>318.3526743090856</v>
+        <v>94.79935125327088</v>
       </c>
       <c r="I11" t="n">
         <v>130.9630535135678</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S11" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T11" t="n">
-        <v>214.0674482973184</v>
+        <v>17.16168134975683</v>
       </c>
       <c r="U11" t="n">
-        <v>54.27488947795754</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V11" t="n">
-        <v>104.1989354143203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>125.6876456615984</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>162.6846156002389</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23357,7 +23357,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I12" t="n">
-        <v>51.40293372813255</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.64333672726892</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>15.84287930594269</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>225.8687826558985</v>
       </c>
       <c r="V12" t="n">
-        <v>159.9799903221518</v>
+        <v>9.247264093610596</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23439,7 +23439,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J13" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S13" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>106.4758490169604</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2685668052903</v>
+        <v>62.7152437494756</v>
       </c>
       <c r="V13" t="n">
-        <v>28.58432026801336</v>
+        <v>48.2659829824041</v>
       </c>
       <c r="W13" t="n">
-        <v>62.96967528077636</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>2.15633233322248</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>183.3227226858968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.2402814861658</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20.31336441140823</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>27.6273333697043</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V14" t="n">
-        <v>292.8683443486813</v>
+        <v>104.1989354143203</v>
       </c>
       <c r="W14" t="n">
-        <v>125.6876456615984</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.3613117985192</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>162.6846156002389</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>34.89491906066405</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.2400059020503</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.64333672726892</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S15" t="n">
         <v>151.1859334239523</v>
       </c>
       <c r="T15" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8687826558985</v>
+        <v>146.1957089643844</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W15" t="n">
         <v>28.14166010510496</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>115.5811136618175</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H16" t="n">
         <v>154.0017766617416</v>
@@ -23676,7 +23676,7 @@
         <v>127.628788365327</v>
       </c>
       <c r="J16" t="n">
-        <v>27.95130333549407</v>
+        <v>27.95130333549406</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.693616733572085</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R16" t="n">
         <v>135.6954283374743</v>
@@ -23709,19 +23709,19 @@
         <v>0.4393665284197823</v>
       </c>
       <c r="U16" t="n">
-        <v>62.71524374947563</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>62.96967528077636</v>
+        <v>84.64856168530966</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>2.156332333222508</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>141.7195687151929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>189.6869584303511</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H17" t="n">
         <v>318.3526743090856</v>
       </c>
       <c r="I17" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>162.0218528261079</v>
       </c>
       <c r="T17" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1806564255189</v>
+        <v>27.62733336970427</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>104.1989354143202</v>
       </c>
       <c r="W17" t="n">
-        <v>125.6876456615983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>314.6158768973872</v>
       </c>
       <c r="Y17" t="n">
-        <v>209.6455361199003</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,10 +23816,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>69.2551751073552</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,10 +23828,10 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H18" t="n">
-        <v>92.57443961269607</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>51.40293372813254</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.1859334239523</v>
@@ -23867,19 +23867,19 @@
         <v>195.7168039184781</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8687826558985</v>
+        <v>2.315459600083813</v>
       </c>
       <c r="V18" t="n">
-        <v>9.247264093610596</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>28.14166010510493</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>154.0017766617416</v>
       </c>
       <c r="I19" t="n">
-        <v>127.628788365327</v>
+        <v>18.62457601944494</v>
       </c>
       <c r="J19" t="n">
         <v>27.95130333549406</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T19" t="n">
-        <v>182.3991806377184</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U19" t="n">
         <v>62.7152437494756</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>2.15633233322248</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>141.7195687151929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>158.3770470164471</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>183.3227226858968</v>
       </c>
       <c r="G20" t="n">
         <v>413.2402814861658</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>17.16168134975683</v>
+        <v>199.4968985872729</v>
       </c>
       <c r="U20" t="n">
         <v>251.1806564255189</v>
       </c>
       <c r="V20" t="n">
-        <v>104.1989354143202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>125.6876456615983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>162.6846156002389</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H21" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>51.40293372813254</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.6433367272689</v>
+        <v>30.48121243300255</v>
       </c>
       <c r="S21" t="n">
-        <v>75.10620371041135</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U21" t="n">
         <v>2.315459600083813</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610596</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0658325864478</v>
+        <v>95.96584845430134</v>
       </c>
       <c r="H22" t="n">
         <v>154.0017766617416</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>218.3467663326416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>2.15633233322248</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>279.1337045129562</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T23" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>30.73595343679182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R25" t="n">
         <v>135.6954283374743</v>
       </c>
       <c r="S25" t="n">
-        <v>147.5229140778655</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>181.3561619349383</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>303.5086167241948</v>
       </c>
       <c r="F26" t="n">
-        <v>19.0833859924914</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>76.82493579728853</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>27.95130333549406</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T28" t="n">
-        <v>179.4321081445785</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U28" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>27.20883009799473</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>151.5998044516461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>21.60114518622379</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>27.95130333549406</v>
@@ -24885,16 +24885,16 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U31" t="n">
-        <v>280.3212825815176</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>275.3160079048075</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>318.3526743090856</v>
       </c>
       <c r="I32" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>111.2159495485764</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>181.3561619349383</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.8174631573415</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>353.6004132818494</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>311.0370431639136</v>
       </c>
       <c r="G35" t="n">
         <v>413.2402814861658</v>
@@ -25174,7 +25174,7 @@
         <v>318.3526743090856</v>
       </c>
       <c r="I35" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,10 +25238,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>124.7287631723769</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25250,10 +25250,10 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H36" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.880024175925954</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>169.4023222237436</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>87.04938143972028</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>154.0017766617416</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T37" t="n">
         <v>223.9926895842344</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>413.2402814861658</v>
       </c>
       <c r="H38" t="n">
-        <v>318.3526743090856</v>
+        <v>286.1900638588714</v>
       </c>
       <c r="I38" t="n">
         <v>130.9630535135678</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>322.8031890264745</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>6.361574765057298</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>185.5292207848215</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>127.628788365327</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9926895842344</v>
+        <v>139.7908194808278</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V40" t="n">
-        <v>241.7079853656343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>42.35499278930035</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>318.3526743090856</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>87.42578604213948</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H42" t="n">
         <v>101.5778486352903</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>63.55619979137219</v>
+        <v>2.298627929587326</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.0658325864478</v>
@@ -25806,7 +25806,7 @@
         <v>154.0017766617416</v>
       </c>
       <c r="I43" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>27.95130333549406</v>
@@ -25836,13 +25836,13 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T43" t="n">
-        <v>26.52977103509949</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>273.2347404817174</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>157.401340049676</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H44" t="n">
-        <v>3.326221382866777</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I44" t="n">
         <v>130.9630535135678</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,13 +25952,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>12.17572072031462</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>82.17971584584593</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>6.701221649545289</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.0658325864478</v>
@@ -26073,7 +26073,7 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S46" t="n">
-        <v>207.8938129283803</v>
+        <v>102.7269765267276</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404392.3279827745</v>
+        <v>404392.3279827744</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>404392.3279827745</v>
+        <v>404392.3279827744</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693073.1599737289</v>
+        <v>693073.1599737291</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693073.1599737291</v>
+        <v>693073.1599737289</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546733.1169789815</v>
+        <v>546733.1169789814</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>546733.1169789814</v>
+        <v>546733.1169789815</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546733.1169789813</v>
+        <v>546733.1169789815</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546733.1169789813</v>
+        <v>546733.1169789814</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377787</v>
+      </c>
+      <c r="C2" t="n">
         <v>614457.2540377789</v>
       </c>
-      <c r="C2" t="n">
-        <v>614457.2540377786</v>
-      </c>
       <c r="D2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
         <v>284167.9421998253</v>
       </c>
       <c r="F2" t="n">
+        <v>284167.9421998252</v>
+      </c>
+      <c r="G2" t="n">
         <v>284167.9421998253</v>
-      </c>
-      <c r="G2" t="n">
-        <v>284167.9421998252</v>
       </c>
       <c r="H2" t="n">
         <v>284167.9421998253</v>
@@ -26337,25 +26337,25 @@
         <v>440763.0736113455</v>
       </c>
       <c r="J2" t="n">
-        <v>440763.0736113455</v>
+        <v>440763.0736113454</v>
       </c>
       <c r="K2" t="n">
         <v>440763.0736113455</v>
       </c>
       <c r="L2" t="n">
-        <v>440763.0736113455</v>
+        <v>440763.0736113453</v>
       </c>
       <c r="M2" t="n">
+        <v>361380.8087568223</v>
+      </c>
+      <c r="N2" t="n">
+        <v>361380.8087568225</v>
+      </c>
+      <c r="O2" t="n">
         <v>361380.8087568224</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>361380.8087568224</v>
-      </c>
-      <c r="O2" t="n">
-        <v>361380.8087568223</v>
-      </c>
-      <c r="P2" t="n">
-        <v>361380.8087568223</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>478922.7151505578</v>
+        <v>478922.7151505579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.374401997774843e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>25695.59298581227</v>
+        <v>25695.59298581226</v>
       </c>
       <c r="F4" t="n">
-        <v>25695.59298581228</v>
+        <v>25695.59298581225</v>
       </c>
       <c r="G4" t="n">
         <v>25695.59298581226</v>
@@ -26453,13 +26453,13 @@
         <v>65243.45444037048</v>
       </c>
       <c r="N4" t="n">
+        <v>65243.45444037047</v>
+      </c>
+      <c r="O4" t="n">
         <v>65243.45444037048</v>
       </c>
-      <c r="O4" t="n">
-        <v>65243.45444037042</v>
-      </c>
       <c r="P4" t="n">
-        <v>65243.45444037042</v>
+        <v>65243.45444037049</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24776.22547288668</v>
+        <v>24776.22547288669</v>
       </c>
       <c r="F5" t="n">
-        <v>24776.22547288668</v>
+        <v>24776.22547288669</v>
       </c>
       <c r="G5" t="n">
         <v>24776.22547288669</v>
@@ -26508,10 +26508,10 @@
         <v>37996.81738133614</v>
       </c>
       <c r="O5" t="n">
-        <v>37996.81738133611</v>
+        <v>37996.81738133614</v>
       </c>
       <c r="P5" t="n">
-        <v>37996.81738133611</v>
+        <v>37996.81738133614</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155306.5148716754</v>
+        <v>155262.3790929941</v>
       </c>
       <c r="C6" t="n">
-        <v>155306.514871675</v>
+        <v>155262.3790929943</v>
       </c>
       <c r="D6" t="n">
-        <v>155306.514871675</v>
+        <v>155262.3790929942</v>
       </c>
       <c r="E6" t="n">
-        <v>-245226.5914094315</v>
+        <v>-256280.3709160445</v>
       </c>
       <c r="F6" t="n">
-        <v>233696.1237411263</v>
+        <v>222642.3442345133</v>
       </c>
       <c r="G6" t="n">
-        <v>233696.1237411261</v>
+        <v>222642.3442345134</v>
       </c>
       <c r="H6" t="n">
-        <v>233696.1237411263</v>
+        <v>222642.3442345134</v>
       </c>
       <c r="I6" t="n">
-        <v>166001.3137183051</v>
+        <v>160167.3719254095</v>
       </c>
       <c r="J6" t="n">
-        <v>283271.7484663735</v>
+        <v>277437.8066734779</v>
       </c>
       <c r="K6" t="n">
-        <v>283271.7484663736</v>
+        <v>277437.806673478</v>
       </c>
       <c r="L6" t="n">
-        <v>283271.7484663735</v>
+        <v>277437.8066734778</v>
       </c>
       <c r="M6" t="n">
-        <v>258140.5369351158</v>
+        <v>249660.5196470694</v>
       </c>
       <c r="N6" t="n">
-        <v>258140.5369351158</v>
+        <v>249660.5196470695</v>
       </c>
       <c r="O6" t="n">
-        <v>258140.5369351158</v>
+        <v>249660.5196470694</v>
       </c>
       <c r="P6" t="n">
-        <v>258140.5369351158</v>
+        <v>249660.5196470694</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="F3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="G3" t="n">
         <v>513.0359372061081</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.5533230558146</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="F4" t="n">
         <v>223.5533230558146</v>
@@ -26828,10 +26828,10 @@
         <v>440.99726891847</v>
       </c>
       <c r="O4" t="n">
-        <v>440.9972689184697</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P4" t="n">
-        <v>440.9972689184697</v>
+        <v>440.99726891847</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>513.035937206108</v>
+        <v>513.0359372061081</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.5533230558146</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.420253570160659e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>440.9972689184701</v>
+        <v>440.99726891847</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.5533230558146</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.420253570160659e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,40 +31758,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I11" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J11" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K11" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L11" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M11" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N11" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O11" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P11" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R11" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S11" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T11" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U11" t="n">
         <v>0.1649964823175421</v>
@@ -31837,43 +31837,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I12" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J12" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K12" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L12" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M12" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N12" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O12" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P12" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R12" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S12" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T12" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H13" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I13" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J13" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K13" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L13" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M13" t="n">
         <v>145.0209617253265</v>
@@ -31940,19 +31940,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R13" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S13" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T13" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>21.12212780668161</v>
       </c>
       <c r="I14" t="n">
-        <v>79.51283605683811</v>
+        <v>79.51283605683814</v>
       </c>
       <c r="J14" t="n">
-        <v>175.0483773887313</v>
+        <v>175.0483773887314</v>
       </c>
       <c r="K14" t="n">
-        <v>262.3521410950008</v>
+        <v>262.3521410950009</v>
       </c>
       <c r="L14" t="n">
-        <v>325.4710297915694</v>
+        <v>325.4710297915695</v>
       </c>
       <c r="M14" t="n">
-        <v>362.1492321967518</v>
+        <v>362.1492321967519</v>
       </c>
       <c r="N14" t="n">
-        <v>368.0091853890607</v>
+        <v>368.0091853890609</v>
       </c>
       <c r="O14" t="n">
-        <v>347.5006382509975</v>
+        <v>347.5006382509976</v>
       </c>
       <c r="P14" t="n">
         <v>296.5837550358185</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.7220484983561</v>
+        <v>222.7220484983562</v>
       </c>
       <c r="R14" t="n">
         <v>129.5557535297415</v>
       </c>
       <c r="S14" t="n">
-        <v>46.99821676013744</v>
+        <v>46.99821676013745</v>
       </c>
       <c r="T14" t="n">
-        <v>9.028401266813013</v>
+        <v>9.028401266813015</v>
       </c>
       <c r="U14" t="n">
         <v>0.1649964823175421</v>
@@ -32074,43 +32074,43 @@
         <v>10.65759560120613</v>
       </c>
       <c r="I15" t="n">
-        <v>37.99369912328253</v>
+        <v>37.99369912328254</v>
       </c>
       <c r="J15" t="n">
         <v>104.2576143712903</v>
       </c>
       <c r="K15" t="n">
-        <v>178.1928688690309</v>
+        <v>178.192868869031</v>
       </c>
       <c r="L15" t="n">
-        <v>239.6023025602677</v>
+        <v>239.6023025602678</v>
       </c>
       <c r="M15" t="n">
-        <v>279.6045857773288</v>
+        <v>279.6045857773289</v>
       </c>
       <c r="N15" t="n">
         <v>287.0048871734434</v>
       </c>
       <c r="O15" t="n">
-        <v>262.5534008077334</v>
+        <v>262.5534008077335</v>
       </c>
       <c r="P15" t="n">
-        <v>210.7222512649012</v>
+        <v>210.7222512649013</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.8622444947789</v>
+        <v>140.862244494779</v>
       </c>
       <c r="R15" t="n">
-        <v>68.51449742537422</v>
+        <v>68.51449742537423</v>
       </c>
       <c r="S15" t="n">
         <v>20.49723767988553</v>
       </c>
       <c r="T15" t="n">
-        <v>4.44792477634352</v>
+        <v>4.447924776343521</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07259942507633607</v>
+        <v>0.07259942507633609</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9251467720110143</v>
+        <v>0.9251467720110145</v>
       </c>
       <c r="H16" t="n">
-        <v>8.225395845697934</v>
+        <v>8.225395845697935</v>
       </c>
       <c r="I16" t="n">
         <v>27.82168656193124</v>
       </c>
       <c r="J16" t="n">
-        <v>65.4078767811787</v>
+        <v>65.40787678117871</v>
       </c>
       <c r="K16" t="n">
-        <v>107.4852340572796</v>
+        <v>107.4852340572797</v>
       </c>
       <c r="L16" t="n">
-        <v>137.5440937224375</v>
+        <v>137.5440937224376</v>
       </c>
       <c r="M16" t="n">
         <v>145.0209617253265</v>
@@ -32177,19 +32177,19 @@
         <v>111.8922968621321</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.4684265181223</v>
+        <v>77.46842651812231</v>
       </c>
       <c r="R16" t="n">
-        <v>41.59796303969523</v>
+        <v>41.59796303969524</v>
       </c>
       <c r="S16" t="n">
-        <v>16.12278510859194</v>
+        <v>16.12278510859195</v>
       </c>
       <c r="T16" t="n">
-        <v>3.95289984404706</v>
+        <v>3.952899844047061</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05046255120060084</v>
+        <v>0.05046255120060085</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.26229005002028</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L11" t="n">
-        <v>89.7046148215822</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M11" t="n">
-        <v>131.802998969479</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N11" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O11" t="n">
         <v>117.4024268293108</v>
       </c>
       <c r="P11" t="n">
-        <v>152.6810329793804</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.7313492838113</v>
+        <v>141.8590592073768</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>223.5533230558146</v>
+        <v>83.33642664177329</v>
       </c>
       <c r="L12" t="n">
-        <v>170.9083141022013</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M12" t="n">
         <v>137.4705518553105</v>
@@ -35506,10 +35506,10 @@
         <v>119.957156363289</v>
       </c>
       <c r="P12" t="n">
-        <v>76.747843850571</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L13" t="n">
         <v>165.1341189827537</v>
@@ -35582,7 +35582,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O13" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P13" t="n">
         <v>109.1708561270256</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>74.04623203816813</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K14" t="n">
-        <v>42.26229005002028</v>
+        <v>178.8084663746372</v>
       </c>
       <c r="L14" t="n">
-        <v>223.5533230558146</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M14" t="n">
-        <v>223.5533230558146</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N14" t="n">
-        <v>138.5961217924698</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O14" t="n">
         <v>117.4024268293108</v>
       </c>
       <c r="P14" t="n">
-        <v>65.35075928054891</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4163586239066603</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K15" t="n">
-        <v>40.35142989467195</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L15" t="n">
-        <v>223.5533230558146</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M15" t="n">
-        <v>223.5533230558146</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N15" t="n">
         <v>155.6631750901101</v>
       </c>
       <c r="O15" t="n">
-        <v>164.4312693703143</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P15" t="n">
-        <v>76.747843850571</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.880470408757418</v>
+        <v>150.4317318466752</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>85.21574223139679</v>
+        <v>85.2157422313968</v>
       </c>
       <c r="L16" t="n">
         <v>165.1341189827537</v>
@@ -35819,7 +35819,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O16" t="n">
-        <v>155.3504189251965</v>
+        <v>155.3504189251966</v>
       </c>
       <c r="P16" t="n">
         <v>109.1708561270256</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K17" t="n">
-        <v>223.5533230558147</v>
+        <v>178.8084663746374</v>
       </c>
       <c r="L17" t="n">
         <v>89.70461482158225</v>
@@ -35904,7 +35904,7 @@
         <v>65.35075928054897</v>
       </c>
       <c r="Q17" t="n">
-        <v>118.7705899768483</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>26.96071751500356</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>40.35142989467198</v>
       </c>
       <c r="L18" t="n">
-        <v>223.5533230558147</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M18" t="n">
         <v>137.4705518553105</v>
       </c>
       <c r="N18" t="n">
-        <v>155.6631750901101</v>
+        <v>198.6481718372114</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5533230558147</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P18" t="n">
         <v>76.74784385057103</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8804704087574464</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>42.26229005002034</v>
+      </c>
+      <c r="L20" t="n">
         <v>223.5533230558147</v>
       </c>
-      <c r="L20" t="n">
-        <v>89.70461482158225</v>
-      </c>
       <c r="M20" t="n">
-        <v>131.8029989694791</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="N20" t="n">
-        <v>138.5961217924699</v>
+        <v>212.6423538306379</v>
       </c>
       <c r="O20" t="n">
         <v>117.4024268293108</v>
@@ -36141,7 +36141,7 @@
         <v>65.35075928054897</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.7705899768483</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>40.35142989467198</v>
       </c>
       <c r="L21" t="n">
-        <v>223.5533230558147</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M21" t="n">
         <v>137.4705518553105</v>
@@ -36217,10 +36217,10 @@
         <v>223.5533230558147</v>
       </c>
       <c r="P21" t="n">
-        <v>103.7085613655747</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8804704087574464</v>
+        <v>150.3465881991821</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K23" t="n">
         <v>366.4077026211851</v>
       </c>
       <c r="L23" t="n">
-        <v>507.3658293720327</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M23" t="n">
-        <v>581.3165324623117</v>
+        <v>338.1139624192413</v>
       </c>
       <c r="N23" t="n">
-        <v>458.9785309077974</v>
+        <v>575.943046204454</v>
       </c>
       <c r="O23" t="n">
-        <v>117.4024268293108</v>
+        <v>498.2026080920562</v>
       </c>
       <c r="P23" t="n">
         <v>387.1494674520316</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>304.8166669072506</v>
       </c>
       <c r="L24" t="n">
-        <v>471.8882680838527</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M24" t="n">
-        <v>475.4848595271013</v>
+        <v>603.1756156053104</v>
       </c>
       <c r="N24" t="n">
-        <v>155.6631750901101</v>
+        <v>635.0055494336636</v>
       </c>
       <c r="O24" t="n">
-        <v>513.8194756400185</v>
+        <v>381.1377135667474</v>
       </c>
       <c r="P24" t="n">
         <v>395.2106124905082</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>366.4077026211851</v>
       </c>
       <c r="L26" t="n">
-        <v>380.6157436098991</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M26" t="n">
         <v>581.3165324623117</v>
@@ -36612,7 +36612,7 @@
         <v>498.2026080920562</v>
       </c>
       <c r="P26" t="n">
-        <v>65.35075928054897</v>
+        <v>101.6997615525343</v>
       </c>
       <c r="Q26" t="n">
         <v>0.4163586239066888</v>
@@ -36685,10 +36685,10 @@
         <v>603.1756156053104</v>
       </c>
       <c r="N27" t="n">
-        <v>525.3457613336629</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O27" t="n">
-        <v>119.957156363289</v>
+        <v>489.6397426068417</v>
       </c>
       <c r="P27" t="n">
         <v>395.2106124905082</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>366.4077026211851</v>
@@ -36843,16 +36843,16 @@
         <v>581.3165324623117</v>
       </c>
       <c r="N29" t="n">
-        <v>138.5961217924699</v>
+        <v>575.943046204454</v>
       </c>
       <c r="O29" t="n">
         <v>498.2026080920562</v>
       </c>
       <c r="P29" t="n">
-        <v>163.6326072704948</v>
+        <v>101.6997615525343</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.7313492838114</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>304.8166669072506</v>
       </c>
       <c r="L30" t="n">
-        <v>101.0479227803936</v>
+        <v>471.8882680838527</v>
       </c>
       <c r="M30" t="n">
-        <v>603.1756156053104</v>
+        <v>390.0048044602773</v>
       </c>
       <c r="N30" t="n">
         <v>635.0055494336636</v>
       </c>
       <c r="O30" t="n">
-        <v>277.626690521715</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P30" t="n">
         <v>395.2106124905082</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>42.26229005002034</v>
       </c>
       <c r="L32" t="n">
-        <v>507.3658293720327</v>
+        <v>333.7465453837954</v>
       </c>
       <c r="M32" t="n">
         <v>581.3165324623117</v>
@@ -37086,10 +37086,10 @@
         <v>498.2026080920562</v>
       </c>
       <c r="P32" t="n">
-        <v>262.7460860895801</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4163586239066888</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>304.8166669072506</v>
+        <v>119.7573281704581</v>
       </c>
       <c r="L33" t="n">
         <v>471.8882680838527</v>
@@ -37159,13 +37159,13 @@
         <v>603.1756156053104</v>
       </c>
       <c r="N33" t="n">
-        <v>155.6631750901101</v>
+        <v>635.0055494336636</v>
       </c>
       <c r="O33" t="n">
-        <v>386.1287195618094</v>
+        <v>513.8194756400185</v>
       </c>
       <c r="P33" t="n">
-        <v>395.2106124905082</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q33" t="n">
         <v>210.9577581446065</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K35" t="n">
         <v>366.4077026211851</v>
@@ -37317,10 +37317,10 @@
         <v>131.8029989694791</v>
       </c>
       <c r="N35" t="n">
-        <v>440.9724442250262</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O35" t="n">
-        <v>117.4024268293108</v>
+        <v>256.6796612277483</v>
       </c>
       <c r="P35" t="n">
         <v>387.1494674520316</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>40.35142989467198</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L36" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M36" t="n">
-        <v>440.99726891847</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N36" t="n">
         <v>155.6631750901101</v>
       </c>
       <c r="O36" t="n">
-        <v>272.0707784814389</v>
+        <v>311.1322585320198</v>
       </c>
       <c r="P36" t="n">
         <v>395.2106124905082</v>
@@ -37548,22 +37548,22 @@
         <v>366.4077026211851</v>
       </c>
       <c r="L38" t="n">
-        <v>248.3794102655023</v>
+        <v>130.3064360132571</v>
       </c>
       <c r="M38" t="n">
-        <v>131.8029989694791</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N38" t="n">
+        <v>138.5961217924699</v>
+      </c>
+      <c r="O38" t="n">
         <v>440.99726891847</v>
-      </c>
-      <c r="O38" t="n">
-        <v>117.4024268293108</v>
       </c>
       <c r="P38" t="n">
         <v>65.35075928054897</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.7313492838114</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4413666895725</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L39" t="n">
-        <v>101.0479227803936</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M39" t="n">
-        <v>137.4705518553105</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N39" t="n">
-        <v>440.99726891847</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O39" t="n">
-        <v>440.99726891847</v>
+        <v>272.0707784814389</v>
       </c>
       <c r="P39" t="n">
-        <v>76.74784385057103</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9577581446065</v>
+        <v>0.8804704087574464</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K41" t="n">
-        <v>154.3922829227338</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L41" t="n">
-        <v>440.9972689184697</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M41" t="n">
-        <v>131.8029989694791</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N41" t="n">
         <v>138.5961217924699</v>
@@ -37797,7 +37797,7 @@
         <v>117.4024268293108</v>
       </c>
       <c r="P41" t="n">
-        <v>387.1494674520316</v>
+        <v>217.2324319014784</v>
       </c>
       <c r="Q41" t="n">
         <v>212.7313492838114</v>
@@ -37864,13 +37864,13 @@
         <v>40.35142989467198</v>
       </c>
       <c r="L42" t="n">
-        <v>440.9972689184697</v>
+        <v>279.5225802557385</v>
       </c>
       <c r="M42" t="n">
-        <v>137.4705518553105</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N42" t="n">
-        <v>297.715203490537</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O42" t="n">
         <v>119.957156363289</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K44" t="n">
-        <v>206.2115195275986</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L44" t="n">
-        <v>440.9972689184697</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M44" t="n">
         <v>131.8029989694791</v>
@@ -38031,13 +38031,13 @@
         <v>138.5961217924699</v>
       </c>
       <c r="O44" t="n">
-        <v>440.9972689184697</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P44" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4163586239066888</v>
+        <v>28.41374159308975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.0558857854839</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L45" t="n">
         <v>101.0479227803936</v>
       </c>
       <c r="M45" t="n">
-        <v>137.4705518553105</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N45" t="n">
-        <v>440.9972689184697</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O45" t="n">
-        <v>440.9972689184697</v>
+        <v>137.4775998710877</v>
       </c>
       <c r="P45" t="n">
         <v>395.2106124905082</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8804704087574464</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431203.093005086</v>
+        <v>1476095.896016751</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6643280.471408684</v>
+        <v>6643280.471408683</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7283347.806969947</v>
+        <v>7283347.806969948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>223.5533230558147</v>
+        <v>24.05642446854166</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T11" t="n">
-        <v>196.9057669475615</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>135.3430541180096</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V12" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>214.7763942260718</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V13" t="n">
-        <v>203.8716603414239</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="X13" t="n">
-        <v>223.5533230558147</v>
+        <v>196.9057669475615</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>24.05642446854166</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S14" t="n">
         <v>162.0218528261079</v>
@@ -1663,19 +1663,19 @@
         <v>214.0674482973184</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="V14" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.36978887994986</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>128.058181300355</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>79.67307369151412</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>223.5533230558146</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20.21466603628568</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>201.8744366512813</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T17" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U17" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>24.05642446854165</v>
       </c>
       <c r="X17" t="n">
-        <v>55.11522378108178</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>88.38990534804574</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>51.40293372813254</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>72.71441130731182</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U18" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W18" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>109.0042123458821</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>132.4232416178373</v>
       </c>
       <c r="X19" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S20" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14.57054971004542</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>176.5924025361533</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H21" t="n">
         <v>101.5778486352903</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.162124294266347</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.1859334239523</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5533230558147</v>
+        <v>148.2083687099959</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.09998413214642</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>207.8938129283803</v>
+        <v>155.5850946176119</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>102.7966655593055</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.3526743090856</v>
+        <v>236.7295816910691</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T23" t="n">
         <v>214.0674482973184</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T25" t="n">
         <v>223.9926895842344</v>
@@ -2535,10 +2535,10 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V25" t="n">
-        <v>70.78148138888972</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>149.4106667971005</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>78.421753348067</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2402814861658</v>
+        <v>137.477025664164</v>
       </c>
       <c r="H26" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>251.1806564255189</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554008</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>71.79053722092382</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>33.85565878980483</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>355.5250115654858</v>
+        <v>235.001533270905</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I29" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S29" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>214.0674482973184</v>
@@ -2851,10 +2851,10 @@
         <v>251.1806564255189</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>151.1859334239523</v>
       </c>
       <c r="T30" t="n">
-        <v>195.7168039184781</v>
+        <v>195.716803918478</v>
       </c>
       <c r="U30" t="n">
         <v>225.8687826558985</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773043</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>127.0143278319886</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>154.0017766617416</v>
       </c>
       <c r="I31" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.9893627796866</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>413.2402814861658</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I32" t="n">
         <v>130.9630535135678</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>165.5876959316481</v>
       </c>
       <c r="U32" t="n">
-        <v>139.9647068769426</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.6433367272689</v>
+        <v>31.64333672726874</v>
       </c>
       <c r="S33" t="n">
         <v>151.1859334239523</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>42.63652764929616</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>180.3935355169623</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>105.5243016202614</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>95.83900257779783</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I35" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,19 +3347,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>22.7163023922618</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H36" t="n">
         <v>101.5778486352903</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S36" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>195.7168039184781</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8687826558985</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.1604692067999</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>61.56609157849208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.774591817102016</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>401.2823966054488</v>
       </c>
       <c r="H38" t="n">
-        <v>32.16261045021419</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S38" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.06519566061293</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T39" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8687826558985</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>20.24376441865593</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>70.6030737568191</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>84.20187010340663</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>355.0315367413438</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>126.6416622551789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>80.76633229674705</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8687826558985</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.384067847717</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I43" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>13.03382632357284</v>
+        <v>114.5285033610507</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>225.3325016138045</v>
+        <v>245.5256838859503</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S44" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4106,22 +4106,22 @@
         <v>31.6433367272689</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>83.59697864894297</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8687826558985</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>123.5932693576315</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S46" t="n">
-        <v>105.1668364016527</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>4.473157373896933</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469.5071407046969</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="C11" t="n">
-        <v>243.695703274581</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="D11" t="n">
-        <v>243.695703274581</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="E11" t="n">
-        <v>243.695703274581</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="F11" t="n">
-        <v>243.695703274581</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="G11" t="n">
-        <v>243.695703274581</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="H11" t="n">
         <v>17.88426584446517</v>
@@ -5041,52 +5041,52 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J11" t="n">
-        <v>17.88426584446517</v>
+        <v>104.3412368063079</v>
       </c>
       <c r="K11" t="n">
-        <v>59.72393299398531</v>
+        <v>146.1809039558281</v>
       </c>
       <c r="L11" t="n">
-        <v>148.5315016673517</v>
+        <v>234.9884726291945</v>
       </c>
       <c r="M11" t="n">
-        <v>279.0164706471361</v>
+        <v>365.4734416089789</v>
       </c>
       <c r="N11" t="n">
-        <v>416.2266312216814</v>
+        <v>502.6836021835241</v>
       </c>
       <c r="O11" t="n">
-        <v>532.455033782699</v>
+        <v>618.9120047445418</v>
       </c>
       <c r="P11" t="n">
-        <v>753.7728236079556</v>
+        <v>683.6092564322853</v>
       </c>
       <c r="Q11" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R11" t="n">
-        <v>894.2132922232587</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="S11" t="n">
-        <v>894.2132922232587</v>
+        <v>710.0363051146564</v>
       </c>
       <c r="T11" t="n">
-        <v>695.3185781348127</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="U11" t="n">
-        <v>695.3185781348127</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="V11" t="n">
-        <v>695.3185781348127</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="W11" t="n">
-        <v>695.3185781348127</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="X11" t="n">
-        <v>695.3185781348127</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="Y11" t="n">
-        <v>469.5071407046969</v>
+        <v>267.9951219296736</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>302.0349913954088</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="C12" t="n">
-        <v>302.0349913954088</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D12" t="n">
-        <v>302.0349913954088</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E12" t="n">
-        <v>302.0349913954088</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F12" t="n">
-        <v>155.5004334222938</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G12" t="n">
         <v>17.88426584446517</v>
@@ -5120,52 +5120,52 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J12" t="n">
+        <v>120.3601786590473</v>
+      </c>
+      <c r="K12" t="n">
+        <v>160.3080942547726</v>
+      </c>
+      <c r="L12" t="n">
+        <v>260.3455378073622</v>
+      </c>
+      <c r="M12" t="n">
+        <v>396.4413841441196</v>
+      </c>
+      <c r="N12" t="n">
+        <v>550.5479274833286</v>
+      </c>
+      <c r="O12" t="n">
+        <v>669.3055122829848</v>
+      </c>
+      <c r="P12" t="n">
+        <v>745.2858776950501</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>894.2132922232586</v>
+      </c>
+      <c r="R12" t="n">
+        <v>894.2132922232586</v>
+      </c>
+      <c r="S12" t="n">
+        <v>894.2132922232586</v>
+      </c>
+      <c r="T12" t="n">
+        <v>894.2132922232586</v>
+      </c>
+      <c r="U12" t="n">
+        <v>668.4018547931428</v>
+      </c>
+      <c r="V12" t="n">
+        <v>442.590417363027</v>
+      </c>
+      <c r="W12" t="n">
+        <v>225.6445646094191</v>
+      </c>
+      <c r="X12" t="n">
+        <v>225.6445646094191</v>
+      </c>
+      <c r="Y12" t="n">
         <v>17.88426584446517</v>
-      </c>
-      <c r="K12" t="n">
-        <v>100.3873282198207</v>
-      </c>
-      <c r="L12" t="n">
-        <v>200.4247717724104</v>
-      </c>
-      <c r="M12" t="n">
-        <v>336.5206181091678</v>
-      </c>
-      <c r="N12" t="n">
-        <v>490.6271614483768</v>
-      </c>
-      <c r="O12" t="n">
-        <v>609.3847462480329</v>
-      </c>
-      <c r="P12" t="n">
-        <v>685.3651116600983</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>894.2132922232587</v>
-      </c>
-      <c r="R12" t="n">
-        <v>862.250325832078</v>
-      </c>
-      <c r="S12" t="n">
-        <v>725.5401701573209</v>
-      </c>
-      <c r="T12" t="n">
-        <v>527.8464288255248</v>
-      </c>
-      <c r="U12" t="n">
-        <v>527.8464288255248</v>
-      </c>
-      <c r="V12" t="n">
-        <v>302.0349913954088</v>
-      </c>
-      <c r="W12" t="n">
-        <v>302.0349913954088</v>
-      </c>
-      <c r="X12" t="n">
-        <v>302.0349913954088</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>302.0349913954088</v>
       </c>
     </row>
     <row r="13">
@@ -5202,43 +5202,43 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K13" t="n">
-        <v>102.2478506535482</v>
+        <v>102.247850653548</v>
       </c>
       <c r="L13" t="n">
-        <v>265.7306284464744</v>
+        <v>265.7306284464742</v>
       </c>
       <c r="M13" t="n">
-        <v>448.4894187467698</v>
+        <v>448.4894187467696</v>
       </c>
       <c r="N13" t="n">
-        <v>632.3372299215588</v>
+        <v>632.3372299215587</v>
       </c>
       <c r="O13" t="n">
-        <v>786.1341446575034</v>
+        <v>786.1341446575033</v>
       </c>
       <c r="P13" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="Q13" t="n">
-        <v>885.4318611792465</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R13" t="n">
-        <v>885.4318611792465</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S13" t="n">
-        <v>675.4381107465392</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="T13" t="n">
-        <v>675.4381107465392</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="U13" t="n">
-        <v>449.6266733164234</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="V13" t="n">
-        <v>243.695703274581</v>
+        <v>442.590417363027</v>
       </c>
       <c r="W13" t="n">
-        <v>243.695703274581</v>
+        <v>216.7789799329111</v>
       </c>
       <c r="X13" t="n">
         <v>17.88426584446517</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.88426584446517</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="C14" t="n">
-        <v>17.88426584446517</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="D14" t="n">
-        <v>17.88426584446517</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="E14" t="n">
-        <v>17.88426584446517</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="F14" t="n">
-        <v>17.88426584446517</v>
+        <v>42.18368449955776</v>
       </c>
       <c r="G14" t="n">
         <v>17.88426584446517</v>
@@ -5302,28 +5302,28 @@
         <v>894.2132922232586</v>
       </c>
       <c r="R14" t="n">
-        <v>894.2132922232586</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="S14" t="n">
-        <v>730.5548550251698</v>
+        <v>710.0363051146564</v>
       </c>
       <c r="T14" t="n">
-        <v>514.3251092703027</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="U14" t="n">
-        <v>514.3251092703027</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="V14" t="n">
-        <v>288.5136718401869</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="W14" t="n">
-        <v>288.5136718401869</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="X14" t="n">
-        <v>243.695703274581</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.88426584446517</v>
+        <v>267.9951219296736</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164.4188238175802</v>
+        <v>468.2235513818941</v>
       </c>
       <c r="C15" t="n">
-        <v>164.4188238175802</v>
+        <v>293.770522100767</v>
       </c>
       <c r="D15" t="n">
-        <v>164.4188238175802</v>
+        <v>293.770522100767</v>
       </c>
       <c r="E15" t="n">
-        <v>164.4188238175802</v>
+        <v>293.770522100767</v>
       </c>
       <c r="F15" t="n">
-        <v>17.88426584446517</v>
+        <v>147.235964127652</v>
       </c>
       <c r="G15" t="n">
         <v>17.88426584446517</v>
@@ -5369,40 +5369,40 @@
         <v>396.4413841441196</v>
       </c>
       <c r="N15" t="n">
-        <v>550.5479274833286</v>
+        <v>617.7591739693761</v>
       </c>
       <c r="O15" t="n">
-        <v>669.3055122829848</v>
+        <v>736.5167587690322</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2858776950501</v>
+        <v>812.4971241810975</v>
       </c>
       <c r="Q15" t="n">
         <v>894.2132922232586</v>
       </c>
       <c r="R15" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="S15" t="n">
-        <v>894.2132922232586</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="T15" t="n">
-        <v>696.5195508914625</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="U15" t="n">
-        <v>616.0416986778118</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="V15" t="n">
-        <v>390.230261247696</v>
+        <v>862.2503258320779</v>
       </c>
       <c r="W15" t="n">
-        <v>164.4188238175802</v>
+        <v>636.4388884019621</v>
       </c>
       <c r="X15" t="n">
-        <v>164.4188238175802</v>
+        <v>636.4388884019621</v>
       </c>
       <c r="Y15" t="n">
-        <v>164.4188238175802</v>
+        <v>636.4388884019621</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.88426584446517</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="C16" t="n">
-        <v>17.88426584446517</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="D16" t="n">
-        <v>17.88426584446517</v>
+        <v>509.5037843367949</v>
       </c>
       <c r="E16" t="n">
-        <v>17.88426584446517</v>
+        <v>489.0849297546881</v>
       </c>
       <c r="F16" t="n">
-        <v>17.88426584446517</v>
+        <v>342.1949822567777</v>
       </c>
       <c r="G16" t="n">
-        <v>17.88426584446517</v>
+        <v>173.4416160078406</v>
       </c>
       <c r="H16" t="n">
         <v>17.88426584446517</v>
@@ -5457,31 +5457,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q16" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R16" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="S16" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="T16" t="n">
-        <v>668.4018547931428</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="U16" t="n">
-        <v>668.4018547931428</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="V16" t="n">
-        <v>668.4018547931428</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="W16" t="n">
-        <v>464.4882824181111</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="X16" t="n">
-        <v>238.6768449879953</v>
+        <v>659.6204237491306</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.88426584446517</v>
+        <v>659.6204237491306</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
       <c r="C17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
       <c r="D17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
       <c r="E17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
       <c r="F17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
       <c r="G17" t="n">
-        <v>150.1701784844327</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H17" t="n">
-        <v>150.1701784844327</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I17" t="n">
         <v>17.88426584446517</v>
@@ -5518,49 +5518,49 @@
         <v>179.3523629982428</v>
       </c>
       <c r="K17" t="n">
-        <v>356.3727447091338</v>
+        <v>356.3727447091337</v>
       </c>
       <c r="L17" t="n">
-        <v>445.1803133825003</v>
+        <v>445.1803133825002</v>
       </c>
       <c r="M17" t="n">
-        <v>575.6652823622846</v>
+        <v>575.6652823622845</v>
       </c>
       <c r="N17" t="n">
-        <v>712.8754429368299</v>
+        <v>712.8754429368298</v>
       </c>
       <c r="O17" t="n">
-        <v>829.1038454978476</v>
+        <v>829.1038454978475</v>
       </c>
       <c r="P17" t="n">
-        <v>893.8010971855911</v>
+        <v>893.8010971855909</v>
       </c>
       <c r="Q17" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R17" t="n">
-        <v>873.6947423127453</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="S17" t="n">
-        <v>873.6947423127453</v>
+        <v>710.0363051146564</v>
       </c>
       <c r="T17" t="n">
-        <v>657.4649965578783</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="U17" t="n">
-        <v>431.6535591277624</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="V17" t="n">
-        <v>205.8421216976466</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="W17" t="n">
-        <v>205.8421216976466</v>
+        <v>243.695703274581</v>
       </c>
       <c r="X17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.1701784844327</v>
+        <v>243.695703274581</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>410.6274509718464</v>
+        <v>229.0438761308626</v>
       </c>
       <c r="C18" t="n">
-        <v>410.6274509718464</v>
+        <v>229.0438761308626</v>
       </c>
       <c r="D18" t="n">
-        <v>261.6930413105951</v>
+        <v>229.0438761308626</v>
       </c>
       <c r="E18" t="n">
-        <v>172.4103086358014</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="F18" t="n">
-        <v>172.4103086358014</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="G18" t="n">
-        <v>172.4103086358014</v>
+        <v>69.80642112540713</v>
       </c>
       <c r="H18" t="n">
         <v>69.80642112540713</v>
@@ -5600,46 +5600,46 @@
         <v>57.83218144019044</v>
       </c>
       <c r="L18" t="n">
-        <v>157.8696249927801</v>
+        <v>255.9680966563543</v>
       </c>
       <c r="M18" t="n">
-        <v>293.9654713295375</v>
+        <v>477.2858864816108</v>
       </c>
       <c r="N18" t="n">
-        <v>490.6271614483768</v>
+        <v>698.6036763068672</v>
       </c>
       <c r="O18" t="n">
-        <v>609.3847462480329</v>
+        <v>817.3612611065233</v>
       </c>
       <c r="P18" t="n">
-        <v>685.3651116600983</v>
+        <v>893.3416265185887</v>
       </c>
       <c r="Q18" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R18" t="n">
-        <v>862.250325832078</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S18" t="n">
-        <v>862.250325832078</v>
+        <v>820.7643919128426</v>
       </c>
       <c r="T18" t="n">
-        <v>862.250325832078</v>
+        <v>623.0706505810465</v>
       </c>
       <c r="U18" t="n">
-        <v>636.4388884019622</v>
+        <v>623.0706505810465</v>
       </c>
       <c r="V18" t="n">
-        <v>636.4388884019622</v>
+        <v>397.2592131509307</v>
       </c>
       <c r="W18" t="n">
-        <v>410.6274509718464</v>
+        <v>397.2592131509307</v>
       </c>
       <c r="X18" t="n">
-        <v>410.6274509718464</v>
+        <v>397.2592131509307</v>
       </c>
       <c r="Y18" t="n">
-        <v>410.6274509718464</v>
+        <v>397.2592131509307</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>296.7428970892428</v>
+        <v>168.0009052568009</v>
       </c>
       <c r="C19" t="n">
-        <v>296.7428970892428</v>
+        <v>168.0009052568009</v>
       </c>
       <c r="D19" t="n">
-        <v>296.7428970892428</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7428970892428</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F19" t="n">
-        <v>296.7428970892428</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G19" t="n">
-        <v>127.9895308403057</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H19" t="n">
-        <v>127.9895308403057</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I19" t="n">
         <v>17.88426584446517</v>
@@ -5682,19 +5682,19 @@
         <v>265.7306284464742</v>
       </c>
       <c r="M19" t="n">
-        <v>448.4894187467697</v>
+        <v>448.4894187467696</v>
       </c>
       <c r="N19" t="n">
-        <v>632.3372299215588</v>
+        <v>632.3372299215587</v>
       </c>
       <c r="O19" t="n">
-        <v>786.1341446575034</v>
+        <v>786.1341446575033</v>
       </c>
       <c r="P19" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="Q19" t="n">
-        <v>885.4318611792465</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R19" t="n">
         <v>748.3657719494745</v>
@@ -5706,19 +5706,19 @@
         <v>748.3657719494745</v>
       </c>
       <c r="U19" t="n">
-        <v>522.5543345193587</v>
+        <v>748.3657719494745</v>
       </c>
       <c r="V19" t="n">
-        <v>522.5543345193587</v>
+        <v>748.3657719494745</v>
       </c>
       <c r="W19" t="n">
-        <v>522.5543345193587</v>
+        <v>614.6049218304469</v>
       </c>
       <c r="X19" t="n">
-        <v>296.7428970892428</v>
+        <v>388.793484400331</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.7428970892428</v>
+        <v>168.0009052568009</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
       <c r="C20" t="n">
-        <v>469.5071407046969</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D20" t="n">
-        <v>469.5071407046969</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E20" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F20" t="n">
         <v>17.88426584446517</v>
@@ -5758,46 +5758,46 @@
         <v>59.72393299398531</v>
       </c>
       <c r="L20" t="n">
-        <v>281.0417228192418</v>
+        <v>183.4703879807484</v>
       </c>
       <c r="M20" t="n">
-        <v>502.3595126444984</v>
+        <v>313.9553569605328</v>
       </c>
       <c r="N20" t="n">
-        <v>712.8754429368299</v>
+        <v>451.165517535078</v>
       </c>
       <c r="O20" t="n">
-        <v>829.1038454978476</v>
+        <v>672.4833073603345</v>
       </c>
       <c r="P20" t="n">
-        <v>893.8010971855911</v>
+        <v>893.8010971855909</v>
       </c>
       <c r="Q20" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R20" t="n">
-        <v>873.6947423127453</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="S20" t="n">
-        <v>710.0363051146566</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="T20" t="n">
-        <v>695.3185781348127</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="U20" t="n">
-        <v>695.3185781348127</v>
+        <v>873.6947423127452</v>
       </c>
       <c r="V20" t="n">
-        <v>695.3185781348127</v>
+        <v>647.8833048826294</v>
       </c>
       <c r="W20" t="n">
-        <v>695.3185781348127</v>
+        <v>647.8833048826294</v>
       </c>
       <c r="X20" t="n">
-        <v>695.3185781348127</v>
+        <v>469.5071407046968</v>
       </c>
       <c r="Y20" t="n">
-        <v>469.5071407046969</v>
+        <v>469.5071407046968</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.4881533548594</v>
+        <v>591.7948052192705</v>
       </c>
       <c r="C21" t="n">
-        <v>120.4881533548594</v>
+        <v>417.3417759381435</v>
       </c>
       <c r="D21" t="n">
-        <v>120.4881533548594</v>
+        <v>417.3417759381435</v>
       </c>
       <c r="E21" t="n">
-        <v>120.4881533548594</v>
+        <v>258.104320932688</v>
       </c>
       <c r="F21" t="n">
-        <v>120.4881533548594</v>
+        <v>258.104320932688</v>
       </c>
       <c r="G21" t="n">
         <v>120.4881533548594</v>
@@ -5831,52 +5831,52 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J21" t="n">
-        <v>17.88426584446517</v>
+        <v>60.43941262409535</v>
       </c>
       <c r="K21" t="n">
-        <v>57.83218144019044</v>
+        <v>100.3873282198206</v>
       </c>
       <c r="L21" t="n">
-        <v>157.8696249927801</v>
+        <v>200.4247717724103</v>
       </c>
       <c r="M21" t="n">
-        <v>293.9654713295375</v>
+        <v>336.5206181091677</v>
       </c>
       <c r="N21" t="n">
-        <v>448.0720146687465</v>
+        <v>490.6271614483767</v>
       </c>
       <c r="O21" t="n">
-        <v>669.3898044940031</v>
+        <v>609.3847462480328</v>
       </c>
       <c r="P21" t="n">
-        <v>745.3701699060684</v>
+        <v>685.3651116600981</v>
       </c>
       <c r="Q21" t="n">
-        <v>894.2132922232587</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="R21" t="n">
-        <v>893.0394292997573</v>
+        <v>894.2132922232586</v>
       </c>
       <c r="S21" t="n">
-        <v>740.3263652351591</v>
+        <v>741.5002281586603</v>
       </c>
       <c r="T21" t="n">
-        <v>740.3263652351591</v>
+        <v>741.5002281586603</v>
       </c>
       <c r="U21" t="n">
-        <v>514.5149278050433</v>
+        <v>591.7948052192705</v>
       </c>
       <c r="V21" t="n">
-        <v>288.7034903749275</v>
+        <v>591.7948052192705</v>
       </c>
       <c r="W21" t="n">
-        <v>288.7034903749275</v>
+        <v>591.7948052192705</v>
       </c>
       <c r="X21" t="n">
-        <v>288.7034903749275</v>
+        <v>591.7948052192705</v>
       </c>
       <c r="Y21" t="n">
-        <v>288.7034903749275</v>
+        <v>591.7948052192705</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>237.6155252169052</v>
+        <v>502.4637625192196</v>
       </c>
       <c r="C22" t="n">
-        <v>237.6155252169052</v>
+        <v>333.5275795913127</v>
       </c>
       <c r="D22" t="n">
-        <v>237.6155252169052</v>
+        <v>333.5275795913127</v>
       </c>
       <c r="E22" t="n">
-        <v>89.70243163451207</v>
+        <v>333.5275795913127</v>
       </c>
       <c r="F22" t="n">
-        <v>89.70243163451207</v>
+        <v>186.6376320934023</v>
       </c>
       <c r="G22" t="n">
         <v>17.88426584446517</v>
@@ -5931,31 +5931,31 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q22" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R22" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="S22" t="n">
-        <v>684.2195417905511</v>
+        <v>728.2751999493354</v>
       </c>
       <c r="T22" t="n">
-        <v>458.4081043604353</v>
+        <v>502.4637625192196</v>
       </c>
       <c r="U22" t="n">
-        <v>458.4081043604353</v>
+        <v>502.4637625192196</v>
       </c>
       <c r="V22" t="n">
-        <v>458.4081043604353</v>
+        <v>502.4637625192196</v>
       </c>
       <c r="W22" t="n">
-        <v>458.4081043604353</v>
+        <v>502.4637625192196</v>
       </c>
       <c r="X22" t="n">
-        <v>458.4081043604353</v>
+        <v>502.4637625192196</v>
       </c>
       <c r="Y22" t="n">
-        <v>237.6155252169052</v>
+        <v>502.4637625192196</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1665.233450102338</v>
+        <v>810.359002183093</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.233450102338</v>
+        <v>810.359002183093</v>
       </c>
       <c r="D23" t="n">
-        <v>1306.967751495588</v>
+        <v>810.359002183093</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.132735779117</v>
+        <v>424.5707495848488</v>
       </c>
       <c r="F23" t="n">
-        <v>792.1468309895099</v>
+        <v>424.5707495848488</v>
       </c>
       <c r="G23" t="n">
-        <v>374.732405245908</v>
+        <v>424.5707495848488</v>
       </c>
       <c r="H23" t="n">
-        <v>53.16404735794277</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="I23" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J23" t="n">
-        <v>214.6321445117204</v>
+        <v>199.8616772993556</v>
       </c>
       <c r="K23" t="n">
-        <v>577.3757701066936</v>
+        <v>241.7013444488758</v>
       </c>
       <c r="L23" t="n">
-        <v>666.18333878006</v>
+        <v>743.9935155271882</v>
       </c>
       <c r="M23" t="n">
-        <v>1000.916161575109</v>
+        <v>1319.496882664877</v>
       </c>
       <c r="N23" t="n">
-        <v>1571.099777317518</v>
+        <v>1889.680498407286</v>
       </c>
       <c r="O23" t="n">
-        <v>2064.320359328654</v>
+        <v>2382.901080418422</v>
       </c>
       <c r="P23" t="n">
         <v>2447.598332106165</v>
@@ -6013,28 +6013,28 @@
         <v>2658.202367897139</v>
       </c>
       <c r="R23" t="n">
-        <v>2658.202367897139</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="S23" t="n">
-        <v>2658.202367897139</v>
+        <v>2474.025380788536</v>
       </c>
       <c r="T23" t="n">
-        <v>2441.972622142272</v>
+        <v>2257.795635033669</v>
       </c>
       <c r="U23" t="n">
-        <v>2441.972622142272</v>
+        <v>2257.795635033669</v>
       </c>
       <c r="V23" t="n">
-        <v>2441.972622142272</v>
+        <v>1926.732747690099</v>
       </c>
       <c r="W23" t="n">
-        <v>2441.972622142272</v>
+        <v>1573.964092419985</v>
       </c>
       <c r="X23" t="n">
-        <v>2441.972622142272</v>
+        <v>1200.498334158905</v>
       </c>
       <c r="Y23" t="n">
-        <v>2051.83329016646</v>
+        <v>810.359002183093</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J24" t="n">
-        <v>53.16404735794277</v>
+        <v>155.6399601725249</v>
       </c>
       <c r="K24" t="n">
-        <v>354.9325475961209</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L24" t="n">
-        <v>454.9699911487105</v>
+        <v>713.5387427801344</v>
       </c>
       <c r="M24" t="n">
-        <v>1052.113850597968</v>
+        <v>1310.682602229392</v>
       </c>
       <c r="N24" t="n">
-        <v>1680.769344537295</v>
+        <v>1939.338096168719</v>
       </c>
       <c r="O24" t="n">
         <v>2058.095680968375</v>
@@ -6174,16 +6174,16 @@
         <v>929.4930737367362</v>
       </c>
       <c r="S25" t="n">
-        <v>929.4930737367362</v>
+        <v>719.4993233040288</v>
       </c>
       <c r="T25" t="n">
-        <v>703.237831732459</v>
+        <v>493.2440812997517</v>
       </c>
       <c r="U25" t="n">
-        <v>414.0776632422667</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="V25" t="n">
-        <v>342.5812173949034</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="W25" t="n">
         <v>53.16404735794277</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1651.309144990304</v>
+        <v>946.7804993856532</v>
       </c>
       <c r="C26" t="n">
-        <v>1282.346628049892</v>
+        <v>577.8179824452416</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.346628049892</v>
+        <v>577.8179824452416</v>
       </c>
       <c r="E26" t="n">
-        <v>1203.132735779117</v>
+        <v>192.0297298469973</v>
       </c>
       <c r="F26" t="n">
-        <v>792.1468309895099</v>
+        <v>192.0297298469973</v>
       </c>
       <c r="G26" t="n">
-        <v>374.732405245908</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H26" t="n">
         <v>53.16404735794277</v>
@@ -6226,25 +6226,25 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J26" t="n">
-        <v>53.16404735794277</v>
+        <v>214.6321445117204</v>
       </c>
       <c r="K26" t="n">
-        <v>415.907672952916</v>
+        <v>300.1128028092258</v>
       </c>
       <c r="L26" t="n">
-        <v>918.1998440312284</v>
+        <v>802.4049738875382</v>
       </c>
       <c r="M26" t="n">
-        <v>1493.703211168917</v>
+        <v>1377.908341025227</v>
       </c>
       <c r="N26" t="n">
-        <v>2063.886826911326</v>
+        <v>1948.091956767636</v>
       </c>
       <c r="O26" t="n">
-        <v>2557.107408922462</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P26" t="n">
-        <v>2657.790172859471</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q26" t="n">
         <v>2658.202367897139</v>
@@ -6262,16 +6262,16 @@
         <v>2004.077800260418</v>
       </c>
       <c r="V26" t="n">
-        <v>2004.077800260418</v>
+        <v>1673.014912916847</v>
       </c>
       <c r="W26" t="n">
-        <v>1651.309144990304</v>
+        <v>1320.246257646733</v>
       </c>
       <c r="X26" t="n">
-        <v>1651.309144990304</v>
+        <v>946.7804993856532</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.309144990304</v>
+        <v>946.7804993856532</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>974.4657096480563</v>
+        <v>974.4657096480562</v>
       </c>
       <c r="C27" t="n">
-        <v>800.0126803669293</v>
+        <v>800.0126803669292</v>
       </c>
       <c r="D27" t="n">
-        <v>651.0782707056781</v>
+        <v>651.0782707056779</v>
       </c>
       <c r="E27" t="n">
         <v>491.8408157002226</v>
@@ -6311,19 +6311,19 @@
         <v>354.9325475961209</v>
       </c>
       <c r="L27" t="n">
-        <v>822.101932999135</v>
+        <v>454.9699911487105</v>
       </c>
       <c r="M27" t="n">
-        <v>1419.245792448392</v>
+        <v>1052.113850597968</v>
       </c>
       <c r="N27" t="n">
-        <v>1573.352335787602</v>
+        <v>1680.769344537295</v>
       </c>
       <c r="O27" t="n">
-        <v>2058.095680968375</v>
+        <v>2189.450625420913</v>
       </c>
       <c r="P27" t="n">
-        <v>2449.354187333978</v>
+        <v>2580.709131786516</v>
       </c>
       <c r="Q27" t="n">
         <v>2658.202367897139</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>747.8446089064964</v>
+        <v>351.1937803526716</v>
       </c>
       <c r="C28" t="n">
-        <v>578.9084259785895</v>
+        <v>351.1937803526716</v>
       </c>
       <c r="D28" t="n">
-        <v>506.3927318160402</v>
+        <v>201.0771409403359</v>
       </c>
       <c r="E28" t="n">
-        <v>506.3927318160402</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="F28" t="n">
-        <v>506.3927318160402</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="G28" t="n">
-        <v>337.6393655671031</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H28" t="n">
-        <v>182.0820154037277</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I28" t="n">
         <v>53.16404735794277</v>
@@ -6417,19 +6417,19 @@
         <v>929.4930737367362</v>
       </c>
       <c r="U28" t="n">
-        <v>929.4930737367362</v>
+        <v>895.2954385955192</v>
       </c>
       <c r="V28" t="n">
-        <v>929.4930737367362</v>
+        <v>640.6109503896323</v>
       </c>
       <c r="W28" t="n">
-        <v>929.4930737367362</v>
+        <v>351.1937803526716</v>
       </c>
       <c r="X28" t="n">
-        <v>929.4930737367362</v>
+        <v>351.1937803526716</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.4930737367362</v>
+        <v>351.1937803526716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>961.1300843482625</v>
+        <v>1930.36095132628</v>
       </c>
       <c r="C29" t="n">
-        <v>961.1300843482625</v>
+        <v>1561.398434385868</v>
       </c>
       <c r="D29" t="n">
-        <v>602.864385741512</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="E29" t="n">
-        <v>602.864385741512</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="F29" t="n">
-        <v>602.864385741512</v>
+        <v>792.1468309895099</v>
       </c>
       <c r="G29" t="n">
-        <v>185.4499599979102</v>
+        <v>374.732405245908</v>
       </c>
       <c r="H29" t="n">
-        <v>185.4499599979102</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I29" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J29" t="n">
-        <v>53.16404735794277</v>
+        <v>214.6321445117204</v>
       </c>
       <c r="K29" t="n">
-        <v>415.907672952916</v>
+        <v>577.3757701066936</v>
       </c>
       <c r="L29" t="n">
-        <v>918.1998440312284</v>
+        <v>1079.667941185006</v>
       </c>
       <c r="M29" t="n">
-        <v>1493.703211168917</v>
+        <v>1210.15291016479</v>
       </c>
       <c r="N29" t="n">
-        <v>2063.886826911326</v>
+        <v>1571.099777317518</v>
       </c>
       <c r="O29" t="n">
-        <v>2557.107408922462</v>
+        <v>2064.320359328654</v>
       </c>
       <c r="P29" t="n">
-        <v>2657.790172859471</v>
+        <v>2447.598332106165</v>
       </c>
       <c r="Q29" t="n">
         <v>2658.202367897139</v>
@@ -6490,25 +6490,25 @@
         <v>2637.683817986625</v>
       </c>
       <c r="S29" t="n">
-        <v>2474.025380788536</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="T29" t="n">
-        <v>2257.795635033669</v>
+        <v>2421.454072231758</v>
       </c>
       <c r="U29" t="n">
-        <v>2004.077800260418</v>
+        <v>2167.736237458507</v>
       </c>
       <c r="V29" t="n">
-        <v>1673.014912916847</v>
+        <v>2167.736237458507</v>
       </c>
       <c r="W29" t="n">
-        <v>1320.246257646733</v>
+        <v>2167.736237458507</v>
       </c>
       <c r="X29" t="n">
-        <v>1320.246257646733</v>
+        <v>2167.736237458507</v>
       </c>
       <c r="Y29" t="n">
-        <v>1320.246257646733</v>
+        <v>2167.736237458507</v>
       </c>
     </row>
     <row r="30">
@@ -6551,10 +6551,10 @@
         <v>924.5778458137172</v>
       </c>
       <c r="M30" t="n">
-        <v>1310.682602229392</v>
+        <v>1395.307856745547</v>
       </c>
       <c r="N30" t="n">
-        <v>1939.338096168719</v>
+        <v>1549.414400084757</v>
       </c>
       <c r="O30" t="n">
         <v>2058.095680968375</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
       <c r="C31" t="n">
-        <v>929.4930737367362</v>
+        <v>356.6344911037113</v>
       </c>
       <c r="D31" t="n">
-        <v>801.1957728963437</v>
+        <v>356.6344911037113</v>
       </c>
       <c r="E31" t="n">
-        <v>653.2826793139506</v>
+        <v>208.7213975213182</v>
       </c>
       <c r="F31" t="n">
-        <v>506.3927318160402</v>
+        <v>208.7213975213182</v>
       </c>
       <c r="G31" t="n">
-        <v>337.6393655671031</v>
+        <v>208.7213975213182</v>
       </c>
       <c r="H31" t="n">
-        <v>182.0820154037277</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I31" t="n">
         <v>53.16404735794277</v>
@@ -6648,25 +6648,25 @@
         <v>929.4930737367362</v>
       </c>
       <c r="S31" t="n">
-        <v>929.4930737367362</v>
+        <v>719.4993233040288</v>
       </c>
       <c r="T31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
       <c r="U31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
       <c r="V31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
       <c r="W31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
       <c r="X31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
       <c r="Y31" t="n">
-        <v>929.4930737367362</v>
+        <v>525.5706740316182</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1013.85029053112</v>
+        <v>1693.684347025835</v>
       </c>
       <c r="C32" t="n">
-        <v>1013.85029053112</v>
+        <v>1693.684347025835</v>
       </c>
       <c r="D32" t="n">
-        <v>1013.85029053112</v>
+        <v>1335.418648419085</v>
       </c>
       <c r="E32" t="n">
-        <v>1013.85029053112</v>
+        <v>1335.418648419085</v>
       </c>
       <c r="F32" t="n">
-        <v>602.864385741512</v>
+        <v>924.4327436294773</v>
       </c>
       <c r="G32" t="n">
-        <v>185.4499599979102</v>
+        <v>507.0183178858755</v>
       </c>
       <c r="H32" t="n">
         <v>185.4499599979102</v>
@@ -6700,52 +6700,52 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J32" t="n">
-        <v>53.16404735794277</v>
+        <v>89.14955960720806</v>
       </c>
       <c r="K32" t="n">
-        <v>95.00371450746292</v>
+        <v>451.8931852021813</v>
       </c>
       <c r="L32" t="n">
-        <v>425.4127944374203</v>
+        <v>954.1853562804937</v>
       </c>
       <c r="M32" t="n">
-        <v>1000.916161575109</v>
+        <v>1529.688723418182</v>
       </c>
       <c r="N32" t="n">
-        <v>1571.099777317518</v>
+        <v>2099.872339160592</v>
       </c>
       <c r="O32" t="n">
-        <v>2064.320359328654</v>
+        <v>2593.092921171728</v>
       </c>
       <c r="P32" t="n">
-        <v>2447.598332106165</v>
+        <v>2657.790172859471</v>
       </c>
       <c r="Q32" t="n">
         <v>2658.202367897139</v>
       </c>
       <c r="R32" t="n">
-        <v>2658.202367897139</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="S32" t="n">
-        <v>2658.202367897139</v>
+        <v>2637.683817986625</v>
       </c>
       <c r="T32" t="n">
-        <v>2658.202367897139</v>
+        <v>2470.423519065769</v>
       </c>
       <c r="U32" t="n">
-        <v>2516.823876102247</v>
+        <v>2470.423519065769</v>
       </c>
       <c r="V32" t="n">
-        <v>2516.823876102247</v>
+        <v>2470.423519065769</v>
       </c>
       <c r="W32" t="n">
-        <v>2164.055220832133</v>
+        <v>2470.423519065769</v>
       </c>
       <c r="X32" t="n">
-        <v>1790.589462571053</v>
+        <v>2470.423519065769</v>
       </c>
       <c r="Y32" t="n">
-        <v>1400.450130595241</v>
+        <v>2080.284187089957</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>974.4657096480555</v>
+        <v>974.4657096480563</v>
       </c>
       <c r="C33" t="n">
-        <v>800.0126803669285</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D33" t="n">
-        <v>651.0782707056774</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E33" t="n">
-        <v>491.8408157002218</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F33" t="n">
-        <v>345.3062577271069</v>
+        <v>345.3062577271076</v>
       </c>
       <c r="G33" t="n">
-        <v>207.6900901492786</v>
+        <v>207.690090149279</v>
       </c>
       <c r="H33" t="n">
         <v>105.0862026388847</v>
@@ -6782,19 +6782,19 @@
         <v>53.16404735794277</v>
       </c>
       <c r="K33" t="n">
-        <v>171.7238022466963</v>
+        <v>93.11196295366804</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8931876497105</v>
+        <v>323.6150466961723</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.037047098968</v>
+        <v>920.7589061454296</v>
       </c>
       <c r="N33" t="n">
-        <v>1864.692541038295</v>
+        <v>1549.414400084757</v>
       </c>
       <c r="O33" t="n">
-        <v>2373.373821921913</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P33" t="n">
         <v>2449.354187333978</v>
@@ -6806,22 +6806,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S33" t="n">
-        <v>2473.526337441359</v>
+        <v>2473.52633744136</v>
       </c>
       <c r="T33" t="n">
-        <v>2275.832596109563</v>
+        <v>2275.832596109564</v>
       </c>
       <c r="U33" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V33" t="n">
-        <v>1812.530202366812</v>
+        <v>1812.530202366813</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.29284563861</v>
+        <v>1558.292845638611</v>
       </c>
       <c r="X33" t="n">
-        <v>1350.441345433077</v>
+        <v>1350.441345433078</v>
       </c>
       <c r="Y33" t="n">
         <v>1142.681046668124</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="C34" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="D34" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="E34" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="F34" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="G34" t="n">
-        <v>53.16404735794277</v>
+        <v>337.6393655671031</v>
       </c>
       <c r="H34" t="n">
-        <v>53.16404735794277</v>
+        <v>182.0820154037277</v>
       </c>
       <c r="I34" t="n">
         <v>53.16404735794277</v>
@@ -6888,22 +6888,22 @@
         <v>929.4930737367362</v>
       </c>
       <c r="T34" t="n">
-        <v>886.4258740909825</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="U34" t="n">
-        <v>597.2657056007903</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="V34" t="n">
-        <v>342.5812173949034</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="W34" t="n">
-        <v>53.16404735794277</v>
+        <v>747.2773812953601</v>
       </c>
       <c r="X34" t="n">
-        <v>53.16404735794277</v>
+        <v>519.2878303973428</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.16404735794277</v>
+        <v>519.2878303973428</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1377.389235609758</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="C35" t="n">
-        <v>1008.426718669347</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="D35" t="n">
-        <v>650.1610200625962</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="E35" t="n">
-        <v>264.372767464352</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5656941534451</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="G35" t="n">
-        <v>167.5656941534451</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="H35" t="n">
-        <v>167.5656941534451</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I35" t="n">
         <v>35.2797815134776</v>
@@ -6940,16 +6940,16 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K35" t="n">
-        <v>559.4915042622285</v>
+        <v>397.9988306619415</v>
       </c>
       <c r="L35" t="n">
-        <v>648.2990729355949</v>
+        <v>486.806399335308</v>
       </c>
       <c r="M35" t="n">
-        <v>778.7840419153792</v>
+        <v>617.2913683150923</v>
       </c>
       <c r="N35" t="n">
-        <v>915.9942024899245</v>
+        <v>1053.878664544378</v>
       </c>
       <c r="O35" t="n">
         <v>1170.107067105395</v>
@@ -6961,28 +6961,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R35" t="n">
-        <v>1763.98907567388</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="S35" t="n">
-        <v>1763.98907567388</v>
+        <v>1579.812088565278</v>
       </c>
       <c r="T35" t="n">
-        <v>1763.98907567388</v>
+        <v>1579.812088565278</v>
       </c>
       <c r="U35" t="n">
-        <v>1763.98907567388</v>
+        <v>1579.812088565278</v>
       </c>
       <c r="V35" t="n">
-        <v>1763.98907567388</v>
+        <v>1579.812088565278</v>
       </c>
       <c r="W35" t="n">
-        <v>1763.98907567388</v>
+        <v>1227.043433295164</v>
       </c>
       <c r="X35" t="n">
-        <v>1763.98907567388</v>
+        <v>853.5776750340842</v>
       </c>
       <c r="Y35" t="n">
-        <v>1763.98907567388</v>
+        <v>463.4383430582725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>320.066884021511</v>
+        <v>904.6592885226493</v>
       </c>
       <c r="C36" t="n">
-        <v>320.066884021511</v>
+        <v>730.2062592415223</v>
       </c>
       <c r="D36" t="n">
-        <v>297.1211240293273</v>
+        <v>581.271849580271</v>
       </c>
       <c r="E36" t="n">
-        <v>137.8836690238719</v>
+        <v>422.0343945748156</v>
       </c>
       <c r="F36" t="n">
-        <v>137.8836690238719</v>
+        <v>275.4998366017005</v>
       </c>
       <c r="G36" t="n">
         <v>137.8836690238719</v>
@@ -7019,19 +7019,19 @@
         <v>35.2797815134776</v>
       </c>
       <c r="K36" t="n">
-        <v>337.0482817516557</v>
+        <v>75.22769710920286</v>
       </c>
       <c r="L36" t="n">
-        <v>773.635577980941</v>
+        <v>511.8149933384882</v>
       </c>
       <c r="M36" t="n">
-        <v>909.7314243176984</v>
+        <v>948.4022895677736</v>
       </c>
       <c r="N36" t="n">
-        <v>1063.837967656907</v>
+        <v>1102.508832906983</v>
       </c>
       <c r="O36" t="n">
-        <v>1371.858903603607</v>
+        <v>1539.096129136268</v>
       </c>
       <c r="P36" t="n">
         <v>1763.11740996921</v>
@@ -7040,28 +7040,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R36" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S36" t="n">
-        <v>1611.276011609282</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="T36" t="n">
-        <v>1413.582270277486</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="U36" t="n">
-        <v>1185.431984766477</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="V36" t="n">
-        <v>950.2798765347345</v>
+        <v>1534.332367950903</v>
       </c>
       <c r="W36" t="n">
-        <v>696.0425198065329</v>
+        <v>1280.634924307671</v>
       </c>
       <c r="X36" t="n">
-        <v>696.0425198065329</v>
+        <v>1280.634924307671</v>
       </c>
       <c r="Y36" t="n">
-        <v>488.282221041579</v>
+        <v>1072.874625542717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>729.9603430620313</v>
+        <v>343.7563890862615</v>
       </c>
       <c r="C37" t="n">
-        <v>561.0241601341244</v>
+        <v>343.7563890862615</v>
       </c>
       <c r="D37" t="n">
-        <v>498.8361888427182</v>
+        <v>193.6397496739258</v>
       </c>
       <c r="E37" t="n">
-        <v>350.9230952603251</v>
+        <v>193.6397496739258</v>
       </c>
       <c r="F37" t="n">
-        <v>204.0331477624147</v>
+        <v>193.6397496739258</v>
       </c>
       <c r="G37" t="n">
-        <v>35.2797815134776</v>
+        <v>193.6397496739258</v>
       </c>
       <c r="H37" t="n">
-        <v>35.2797815134776</v>
+        <v>38.08239951055035</v>
       </c>
       <c r="I37" t="n">
         <v>35.2797815134776</v>
@@ -7119,28 +7119,28 @@
         <v>911.608807892271</v>
       </c>
       <c r="R37" t="n">
-        <v>911.608807892271</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="S37" t="n">
-        <v>911.608807892271</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="T37" t="n">
-        <v>911.608807892271</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="U37" t="n">
-        <v>911.608807892271</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="V37" t="n">
-        <v>911.608807892271</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="W37" t="n">
-        <v>911.608807892271</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="X37" t="n">
-        <v>911.608807892271</v>
+        <v>564.5489682297916</v>
       </c>
       <c r="Y37" t="n">
-        <v>911.608807892271</v>
+        <v>343.7563890862615</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>426.0329654234748</v>
+        <v>809.5780526008073</v>
       </c>
       <c r="C38" t="n">
-        <v>426.0329654234748</v>
+        <v>440.6155356603956</v>
       </c>
       <c r="D38" t="n">
-        <v>67.76726681672426</v>
+        <v>440.6155356603956</v>
       </c>
       <c r="E38" t="n">
-        <v>67.76726681672426</v>
+        <v>440.6155356603956</v>
       </c>
       <c r="F38" t="n">
-        <v>67.76726681672426</v>
+        <v>440.6155356603956</v>
       </c>
       <c r="G38" t="n">
-        <v>67.76726681672426</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H38" t="n">
         <v>35.2797815134776</v>
@@ -7180,13 +7180,13 @@
         <v>559.4915042622285</v>
       </c>
       <c r="L38" t="n">
-        <v>688.4948759153531</v>
+        <v>996.0788004915139</v>
       </c>
       <c r="M38" t="n">
-        <v>1125.082172144638</v>
+        <v>1126.563769471298</v>
       </c>
       <c r="N38" t="n">
-        <v>1262.292332719184</v>
+        <v>1263.773930045843</v>
       </c>
       <c r="O38" t="n">
         <v>1698.879628948469</v>
@@ -7201,25 +7201,25 @@
         <v>1743.470525763367</v>
       </c>
       <c r="S38" t="n">
-        <v>1579.812088565278</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="T38" t="n">
-        <v>1363.582342810411</v>
+        <v>1527.2407800085</v>
       </c>
       <c r="U38" t="n">
-        <v>1109.86450803716</v>
+        <v>1527.2407800085</v>
       </c>
       <c r="V38" t="n">
-        <v>778.8016206935889</v>
+        <v>1196.177892664929</v>
       </c>
       <c r="W38" t="n">
-        <v>426.0329654234748</v>
+        <v>1196.177892664929</v>
       </c>
       <c r="X38" t="n">
-        <v>426.0329654234748</v>
+        <v>1196.177892664929</v>
       </c>
       <c r="Y38" t="n">
-        <v>426.0329654234748</v>
+        <v>1196.177892664929</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>655.52084303914</v>
+        <v>309.9091251477741</v>
       </c>
       <c r="C39" t="n">
-        <v>481.067813758013</v>
+        <v>309.9091251477741</v>
       </c>
       <c r="D39" t="n">
-        <v>332.1334040967617</v>
+        <v>309.9091251477741</v>
       </c>
       <c r="E39" t="n">
-        <v>172.8959490913062</v>
+        <v>309.9091251477741</v>
       </c>
       <c r="F39" t="n">
-        <v>172.8959490913062</v>
+        <v>309.9091251477741</v>
       </c>
       <c r="G39" t="n">
-        <v>35.2797815134776</v>
+        <v>172.2929575699455</v>
       </c>
       <c r="H39" t="n">
-        <v>35.2797815134776</v>
+        <v>69.68907005955127</v>
       </c>
       <c r="I39" t="n">
         <v>35.2797815134776</v>
@@ -7277,28 +7277,28 @@
         <v>1763.98907567388</v>
       </c>
       <c r="R39" t="n">
-        <v>1732.026109282699</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="S39" t="n">
-        <v>1732.026109282699</v>
+        <v>1611.276011609282</v>
       </c>
       <c r="T39" t="n">
-        <v>1534.332367950903</v>
+        <v>1611.276011609282</v>
       </c>
       <c r="U39" t="n">
-        <v>1306.182082439895</v>
+        <v>1383.125726098273</v>
       </c>
       <c r="V39" t="n">
-        <v>1306.182082439895</v>
+        <v>1147.973617866531</v>
       </c>
       <c r="W39" t="n">
-        <v>1051.944725711693</v>
+        <v>893.7362611383289</v>
       </c>
       <c r="X39" t="n">
-        <v>1031.496478824162</v>
+        <v>685.8847609327961</v>
       </c>
       <c r="Y39" t="n">
-        <v>823.736180059208</v>
+        <v>478.1244621678422</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>826.5564138484259</v>
+        <v>330.0828225937811</v>
       </c>
       <c r="C40" t="n">
-        <v>657.620230920519</v>
+        <v>330.0828225937811</v>
       </c>
       <c r="D40" t="n">
-        <v>507.5035915081833</v>
+        <v>330.0828225937811</v>
       </c>
       <c r="E40" t="n">
-        <v>359.5904979257901</v>
+        <v>182.169729011388</v>
       </c>
       <c r="F40" t="n">
-        <v>359.5904979257901</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G40" t="n">
-        <v>190.837131676853</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="H40" t="n">
         <v>35.2797815134776</v>
@@ -7362,22 +7362,22 @@
         <v>911.608807892271</v>
       </c>
       <c r="T40" t="n">
-        <v>826.5564138484259</v>
+        <v>911.608807892271</v>
       </c>
       <c r="U40" t="n">
-        <v>826.5564138484259</v>
+        <v>911.608807892271</v>
       </c>
       <c r="V40" t="n">
-        <v>826.5564138484259</v>
+        <v>911.608807892271</v>
       </c>
       <c r="W40" t="n">
-        <v>826.5564138484259</v>
+        <v>622.1916378553103</v>
       </c>
       <c r="X40" t="n">
-        <v>826.5564138484259</v>
+        <v>622.1916378553103</v>
       </c>
       <c r="Y40" t="n">
-        <v>826.5564138484259</v>
+        <v>401.3990587117802</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1249.468364644931</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="C41" t="n">
-        <v>1249.468364644931</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="D41" t="n">
-        <v>1249.468364644931</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="E41" t="n">
-        <v>863.680112046687</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F41" t="n">
-        <v>452.6942072570794</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G41" t="n">
         <v>35.2797815134776</v>
@@ -7411,25 +7411,25 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J41" t="n">
-        <v>196.7478786672552</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K41" t="n">
-        <v>559.4915042622285</v>
+        <v>398.0234071084508</v>
       </c>
       <c r="L41" t="n">
-        <v>648.2990729355949</v>
+        <v>834.6107033377361</v>
       </c>
       <c r="M41" t="n">
-        <v>1084.88636916488</v>
+        <v>965.0956723175204</v>
       </c>
       <c r="N41" t="n">
-        <v>1222.096529739425</v>
+        <v>1102.305832892066</v>
       </c>
       <c r="O41" t="n">
-        <v>1338.324932300443</v>
+        <v>1538.893129121351</v>
       </c>
       <c r="P41" t="n">
-        <v>1553.385039882907</v>
+        <v>1603.590380809095</v>
       </c>
       <c r="Q41" t="n">
         <v>1763.98907567388</v>
@@ -7441,22 +7441,22 @@
         <v>1763.98907567388</v>
       </c>
       <c r="T41" t="n">
-        <v>1636.068204709053</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U41" t="n">
-        <v>1636.068204709053</v>
+        <v>1510.271240900629</v>
       </c>
       <c r="V41" t="n">
-        <v>1636.068204709053</v>
+        <v>1510.271240900629</v>
       </c>
       <c r="W41" t="n">
-        <v>1636.068204709053</v>
+        <v>1157.502585630514</v>
       </c>
       <c r="X41" t="n">
-        <v>1636.068204709053</v>
+        <v>784.0368273694346</v>
       </c>
       <c r="Y41" t="n">
-        <v>1636.068204709053</v>
+        <v>393.8974953936229</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>517.9046754613114</v>
+        <v>690.772474723381</v>
       </c>
       <c r="C42" t="n">
-        <v>343.4516461801844</v>
+        <v>516.3194454422541</v>
       </c>
       <c r="D42" t="n">
-        <v>194.5172365189331</v>
+        <v>516.3194454422541</v>
       </c>
       <c r="E42" t="n">
-        <v>35.2797815134776</v>
+        <v>357.0819904367985</v>
       </c>
       <c r="F42" t="n">
-        <v>35.2797815134776</v>
+        <v>275.4998366017005</v>
       </c>
       <c r="G42" t="n">
-        <v>35.2797815134776</v>
+        <v>137.8836690238719</v>
       </c>
       <c r="H42" t="n">
         <v>35.2797815134776</v>
@@ -7490,13 +7490,13 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J42" t="n">
-        <v>137.7556943280597</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K42" t="n">
-        <v>177.703609923785</v>
+        <v>337.0482817516557</v>
       </c>
       <c r="L42" t="n">
-        <v>454.4309643769661</v>
+        <v>754.922414269494</v>
       </c>
       <c r="M42" t="n">
         <v>891.0182606062514</v>
@@ -7517,25 +7517,25 @@
         <v>1763.98907567388</v>
       </c>
       <c r="S42" t="n">
-        <v>1611.276011609282</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="T42" t="n">
-        <v>1413.582270277486</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="U42" t="n">
-        <v>1185.431984766477</v>
+        <v>1763.98907567388</v>
       </c>
       <c r="V42" t="n">
-        <v>1185.431984766477</v>
+        <v>1528.836967442137</v>
       </c>
       <c r="W42" t="n">
-        <v>931.1946280382756</v>
+        <v>1274.599610713936</v>
       </c>
       <c r="X42" t="n">
-        <v>723.3431278327428</v>
+        <v>1066.748110508403</v>
       </c>
       <c r="Y42" t="n">
-        <v>517.9046754613114</v>
+        <v>858.9878117434491</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>480.0238799850797</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="C43" t="n">
-        <v>311.0876970571728</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="D43" t="n">
-        <v>311.0876970571728</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0876970571728</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="F43" t="n">
-        <v>164.1977495592625</v>
+        <v>359.5904979257901</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1977495592625</v>
+        <v>190.837131676853</v>
       </c>
       <c r="H43" t="n">
-        <v>164.1977495592625</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="I43" t="n">
         <v>35.2797815134776</v>
@@ -7590,31 +7590,31 @@
         <v>911.608807892271</v>
       </c>
       <c r="Q43" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="R43" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="S43" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T43" t="n">
-        <v>902.8273768482588</v>
+        <v>911.608807892271</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6618957133368</v>
+        <v>795.9234509619167</v>
       </c>
       <c r="V43" t="n">
-        <v>889.6618957133368</v>
+        <v>541.2389627560299</v>
       </c>
       <c r="W43" t="n">
-        <v>889.6618957133368</v>
+        <v>541.2389627560299</v>
       </c>
       <c r="X43" t="n">
-        <v>661.6723448153194</v>
+        <v>541.2389627560299</v>
       </c>
       <c r="Y43" t="n">
-        <v>661.6723448153194</v>
+        <v>541.2389627560299</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>762.5079970606398</v>
+        <v>774.2625651450446</v>
       </c>
       <c r="C44" t="n">
-        <v>393.5454801202281</v>
+        <v>774.2625651450446</v>
       </c>
       <c r="D44" t="n">
-        <v>35.2797815134776</v>
+        <v>774.2625651450446</v>
       </c>
       <c r="E44" t="n">
-        <v>35.2797815134776</v>
+        <v>774.2625651450446</v>
       </c>
       <c r="F44" t="n">
-        <v>35.2797815134776</v>
+        <v>774.2625651450446</v>
       </c>
       <c r="G44" t="n">
-        <v>35.2797815134776</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="H44" t="n">
         <v>35.2797815134776</v>
@@ -7651,22 +7651,22 @@
         <v>196.7478786672552</v>
       </c>
       <c r="K44" t="n">
-        <v>559.4915042622285</v>
+        <v>238.5875458167754</v>
       </c>
       <c r="L44" t="n">
-        <v>648.2990729355949</v>
+        <v>675.1748420460607</v>
       </c>
       <c r="M44" t="n">
-        <v>778.7840419153792</v>
+        <v>805.6598110258451</v>
       </c>
       <c r="N44" t="n">
-        <v>915.9942024899245</v>
+        <v>1242.24710725513</v>
       </c>
       <c r="O44" t="n">
-        <v>1352.58149871921</v>
+        <v>1358.475509816148</v>
       </c>
       <c r="P44" t="n">
-        <v>1735.859471496721</v>
+        <v>1741.75348259366</v>
       </c>
       <c r="Q44" t="n">
         <v>1763.98907567388</v>
@@ -7675,25 +7675,25 @@
         <v>1743.470525763367</v>
       </c>
       <c r="S44" t="n">
-        <v>1579.812088565278</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="T44" t="n">
-        <v>1363.582342810411</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="U44" t="n">
-        <v>1363.582342810411</v>
+        <v>1743.470525763367</v>
       </c>
       <c r="V44" t="n">
-        <v>1363.582342810411</v>
+        <v>1412.407638419796</v>
       </c>
       <c r="W44" t="n">
-        <v>1363.582342810411</v>
+        <v>1412.407638419796</v>
       </c>
       <c r="X44" t="n">
-        <v>990.1165845493313</v>
+        <v>1412.407638419796</v>
       </c>
       <c r="Y44" t="n">
-        <v>990.1165845493313</v>
+        <v>1022.268306443984</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.5814438035912</v>
+        <v>782.1284145224643</v>
       </c>
       <c r="C45" t="n">
         <v>782.1284145224643</v>
@@ -7727,19 +7727,19 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J45" t="n">
-        <v>35.2797815134776</v>
+        <v>137.7556943280597</v>
       </c>
       <c r="K45" t="n">
-        <v>337.0482817516557</v>
+        <v>439.5241945662378</v>
       </c>
       <c r="L45" t="n">
-        <v>437.0857253042453</v>
+        <v>539.5616381188274</v>
       </c>
       <c r="M45" t="n">
-        <v>873.6730215335306</v>
+        <v>675.6574844555848</v>
       </c>
       <c r="N45" t="n">
-        <v>1027.77956487274</v>
+        <v>1045.12480394546</v>
       </c>
       <c r="O45" t="n">
         <v>1163.882388745116</v>
@@ -7754,25 +7754,25 @@
         <v>1732.026109282699</v>
       </c>
       <c r="S45" t="n">
-        <v>1732.026109282699</v>
+        <v>1647.584716708009</v>
       </c>
       <c r="T45" t="n">
-        <v>1732.026109282699</v>
+        <v>1647.584716708009</v>
       </c>
       <c r="U45" t="n">
-        <v>1503.875823771691</v>
+        <v>1647.584716708009</v>
       </c>
       <c r="V45" t="n">
-        <v>1503.875823771691</v>
+        <v>1412.432608476267</v>
       </c>
       <c r="W45" t="n">
-        <v>1249.638467043489</v>
+        <v>1158.195251748065</v>
       </c>
       <c r="X45" t="n">
-        <v>1124.796780823659</v>
+        <v>950.3437515425323</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.796780823659</v>
+        <v>950.3437515425323</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
       <c r="C46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
       <c r="D46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
       <c r="E46" t="n">
-        <v>35.2797815134776</v>
+        <v>332.9511158081996</v>
       </c>
       <c r="F46" t="n">
-        <v>35.2797815134776</v>
+        <v>332.9511158081996</v>
       </c>
       <c r="G46" t="n">
-        <v>35.2797815134776</v>
+        <v>164.1977495592625</v>
       </c>
       <c r="H46" t="n">
-        <v>35.2797815134776</v>
+        <v>164.1977495592625</v>
       </c>
       <c r="I46" t="n">
         <v>35.2797815134776</v>
@@ -7830,28 +7830,28 @@
         <v>911.608807892271</v>
       </c>
       <c r="R46" t="n">
-        <v>911.608807892271</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="S46" t="n">
-        <v>805.3796802138339</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="T46" t="n">
-        <v>579.1244382095567</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="U46" t="n">
-        <v>289.9642697193645</v>
+        <v>485.3825501723068</v>
       </c>
       <c r="V46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
       <c r="W46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
       <c r="X46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.2797815134776</v>
+        <v>480.8642093905927</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.997527137954933</v>
+        <v>93.32780083678601</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>158.2025637752657</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.4427005834702</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>22.58001229537635</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>42.98499674710131</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>149.5512614379178</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8862,7 +8862,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658824</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>67.89014796570453</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>149.5512614379178</v>
+        <v>81.66111347221329</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9099,7 +9099,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658824</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>136.5461763246171</v>
+        <v>136.5461763246169</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>99.08936531674161</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>86.08277120050411</v>
       </c>
       <c r="N18" t="n">
-        <v>42.98499674710126</v>
+        <v>67.8901479657045</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,19 +9406,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>133.8487082342324</v>
+        <v>35.29180435696631</v>
       </c>
       <c r="M20" t="n">
-        <v>91.75032408633552</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>74.046232038168</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>106.1508962265038</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>158.2025637752657</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>22.58001229537635</v>
+        <v>65.56500904247754</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>103.5961666925257</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>149.4661177904246</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>154.1769513212002</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>206.3109634497621</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>22.58001229537635</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>157.669534158426</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>261.1805572034584</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.997527137954933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>44.08180924038913</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9889,13 +9889,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>36.34900227198536</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>369.6825862435527</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>77.39552566257846</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.997527137954933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,19 +10120,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>225.9966733112959</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>36.34900227198536</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>252.5342526049668</v>
+        <v>338.0143076717908</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.997527137954933</v>
+        <v>42.34652940994008</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>244.0419305622131</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10366,10 +10366,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,10 +10430,10 @@
         <v>22.58001229537635</v>
       </c>
       <c r="K33" t="n">
-        <v>79.40589827578616</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>131.7834749393077</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>161.0214998436022</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>302.401147126</v>
       </c>
       <c r="O35" t="n">
-        <v>139.2772343984375</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10667,22 +10667,22 @@
         <v>22.58001229537635</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>339.9493461380764</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>303.5267170631595</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>191.1751021687308</v>
+        <v>321.040112555181</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>149.536278202906</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>40.60182119167484</v>
+        <v>351.2926540968878</v>
       </c>
       <c r="M38" t="n">
-        <v>309.1942699489908</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>323.5948420891592</v>
+        <v>322.0982791329373</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>351.2926540968878</v>
       </c>
       <c r="M41" t="n">
-        <v>309.1942699489908</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>323.5948420891592</v>
       </c>
       <c r="P41" t="n">
-        <v>151.8816726209294</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>161.6025250778969</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>178.4746574753449</v>
+        <v>321.0471605709582</v>
       </c>
       <c r="M42" t="n">
-        <v>303.5267170631595</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>351.2926540968878</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>302.4011471260001</v>
       </c>
       <c r="O44" t="n">
-        <v>323.5948420891592</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>27.99738296918306</v>
+        <v>22.04383640661906</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>22.58001229537635</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,13 +11384,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>303.5267170631595</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>217.5361375259258</v>
       </c>
       <c r="O45" t="n">
-        <v>17.52044350779866</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>141.7195687151929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>183.3227226858968</v>
       </c>
       <c r="G11" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H11" t="n">
-        <v>94.79935125327088</v>
+        <v>294.2962498405439</v>
       </c>
       <c r="I11" t="n">
         <v>130.9630535135678</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.16168134975683</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.1806564255189</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>125.6876456615984</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.6846156002389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,10 +23348,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H12" t="n">
         <v>101.5778486352903</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S12" t="n">
-        <v>15.84287930594269</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8687826558985</v>
+        <v>2.315459600083841</v>
       </c>
       <c r="V12" t="n">
-        <v>9.247264093610596</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>36.9185889348478</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R13" t="n">
         <v>135.6954283374743</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T13" t="n">
         <v>223.9926895842344</v>
       </c>
       <c r="U13" t="n">
-        <v>62.7152437494756</v>
+        <v>62.71524374947563</v>
       </c>
       <c r="V13" t="n">
-        <v>48.2659829824041</v>
+        <v>28.58432026801336</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>62.96967528077636</v>
       </c>
       <c r="X13" t="n">
-        <v>2.15633233322248</v>
+        <v>28.80388844147566</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>141.7195687151929</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.2402814861658</v>
+        <v>389.1838570176241</v>
       </c>
       <c r="H14" t="n">
         <v>318.3526743090856</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1806564255189</v>
+        <v>27.6273333697043</v>
       </c>
       <c r="V14" t="n">
-        <v>104.1989354143203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.3613117985192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>162.6846156002389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2400059020503</v>
+        <v>8.181824601695354</v>
       </c>
       <c r="H15" t="n">
         <v>101.5778486352903</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.1859334239523</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U15" t="n">
-        <v>146.1957089643844</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V15" t="n">
-        <v>9.247264093610625</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>28.14166010510496</v>
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>126.2192966102835</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>127.628788365327</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>135.6954283374743</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>84.64856168530966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>2.156332333222508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.2402814861658</v>
+        <v>189.6869584303511</v>
       </c>
       <c r="H17" t="n">
         <v>318.3526743090856</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.62733336970427</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V17" t="n">
-        <v>104.1989354143202</v>
+        <v>104.1989354143203</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>325.1845442488714</v>
       </c>
       <c r="X17" t="n">
-        <v>314.6158768973872</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>69.2551751073552</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,7 +23828,7 @@
         <v>136.2400059020503</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S18" t="n">
-        <v>151.1859334239523</v>
+        <v>78.47152211664047</v>
       </c>
       <c r="T18" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.315459600083813</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>9.247264093610625</v>
       </c>
       <c r="W18" t="n">
-        <v>28.14166010510493</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H19" t="n">
         <v>154.0017766617416</v>
       </c>
       <c r="I19" t="n">
-        <v>18.62457601944494</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J19" t="n">
         <v>27.95130333549406</v>
@@ -23946,19 +23946,19 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U19" t="n">
-        <v>62.7152437494756</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>154.0997567187537</v>
       </c>
       <c r="X19" t="n">
-        <v>2.15633233322248</v>
+        <v>2.156332333222508</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>159.1805186076659</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>141.7195687151929</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>158.3770470164471</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>183.3227226858968</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.2402814861658</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T20" t="n">
-        <v>199.4968985872729</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U20" t="n">
         <v>251.1806564255189</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>104.1989354143203</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>193.1386981423158</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.6846156002389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>30.48121243300255</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,10 +24104,10 @@
         <v>195.7168039184781</v>
       </c>
       <c r="U21" t="n">
-        <v>2.315459600083813</v>
+        <v>77.6604139459026</v>
       </c>
       <c r="V21" t="n">
-        <v>9.247264093610596</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>95.96584845430134</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>154.0017766617416</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.693616733572071</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>135.6954283374743</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>52.30871831076837</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4393665284197539</v>
+        <v>0.4393665284197823</v>
       </c>
       <c r="U22" t="n">
         <v>286.2685668052903</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>279.1337045129562</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>81.62309261801641</v>
       </c>
       <c r="I23" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>251.1806564255189</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S25" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>181.3561619349383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>137.1123315394905</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>303.5086167241948</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>275.7632558220017</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I26" t="n">
         <v>130.9630535135678</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>76.82493579728853</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J28" t="n">
         <v>27.95130333549406</v>
@@ -24657,13 +24657,13 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2685668052903</v>
+        <v>252.4129080154854</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.20883009799473</v>
+        <v>147.7323083925756</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.60114518622379</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J31" t="n">
         <v>27.95130333549406</v>
@@ -24888,10 +24888,10 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.9926895842344</v>
+        <v>32.00332680454787</v>
       </c>
       <c r="U31" t="n">
         <v>286.2685668052903</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T32" t="n">
-        <v>214.0674482973184</v>
+        <v>48.47975236567021</v>
       </c>
       <c r="U32" t="n">
-        <v>111.2159495485764</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>167.0658325864478</v>
       </c>
       <c r="H34" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>27.95130333549406</v>
@@ -25128,19 +25128,19 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T34" t="n">
-        <v>181.3561619349383</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>106.1294628196287</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>277.2095400432192</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>311.0370431639136</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H35" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>214.0674482973184</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,19 +25235,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>124.7287631723769</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.5345139541197454</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>87.04938143972028</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H37" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>127.628788365327</v>
+        <v>124.854196548225</v>
       </c>
       <c r="J37" t="n">
         <v>27.95130333549406</v>
@@ -25359,10 +25359,10 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R37" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.9926895842344</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2402814861658</v>
+        <v>11.95788488071702</v>
       </c>
       <c r="H38" t="n">
-        <v>286.1900638588714</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I38" t="n">
         <v>130.9630535135678</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>51.40293372813254</v>
+        <v>17.33773806751961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S39" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>185.5292207848215</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>109.2289064251182</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I40" t="n">
         <v>127.628788365327</v>
@@ -25602,7 +25602,7 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T40" t="n">
-        <v>139.7908194808278</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U40" t="n">
         <v>286.2685668052903</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>27.70230492213676</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H41" t="n">
         <v>318.3526743090856</v>
@@ -25681,22 +25681,22 @@
         <v>162.0218528261079</v>
       </c>
       <c r="T41" t="n">
-        <v>87.42578604213948</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>64.30288009663683</v>
       </c>
       <c r="G42" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>51.40293372813254</v>
@@ -25757,16 +25757,16 @@
         <v>31.6433367272689</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.298627929587326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J43" t="n">
         <v>27.95130333549406</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>8.693616733572071</v>
       </c>
       <c r="R43" t="n">
         <v>135.6954283374743</v>
@@ -25842,16 +25842,16 @@
         <v>223.9926895842344</v>
       </c>
       <c r="U43" t="n">
-        <v>273.2347404817174</v>
+        <v>171.7400634442396</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.401340049676</v>
+        <v>137.2081577775303</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>130.9630535135678</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U44" t="n">
         <v>251.1806564255189</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.1859334239523</v>
+        <v>67.58895477500933</v>
       </c>
       <c r="T45" t="n">
         <v>195.7168039184781</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>82.17971584584593</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>154.0017766617416</v>
       </c>
       <c r="I46" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>27.95130333549406</v>
@@ -26070,19 +26070,19 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R46" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>102.7269765267276</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>247.6644859499311</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>404392.3279827745</v>
+        <v>404392.3279827744</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693073.1599737289</v>
+        <v>693073.1599737291</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693073.1599737291</v>
+        <v>693073.1599737292</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693073.1599737291</v>
+        <v>693073.1599737292</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693073.1599737289</v>
+        <v>693073.1599737292</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546733.1169789814</v>
+        <v>546733.1169789818</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>546733.1169789815</v>
+        <v>546733.1169789813</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>546733.1169789814</v>
+        <v>546733.1169789815</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377789</v>
       </c>
-      <c r="D2" t="n">
-        <v>614457.2540377788</v>
-      </c>
       <c r="E2" t="n">
+        <v>284167.9421998252</v>
+      </c>
+      <c r="F2" t="n">
         <v>284167.9421998253</v>
-      </c>
-      <c r="F2" t="n">
-        <v>284167.9421998252</v>
       </c>
       <c r="G2" t="n">
         <v>284167.9421998253</v>
@@ -26337,19 +26337,19 @@
         <v>440763.0736113455</v>
       </c>
       <c r="J2" t="n">
-        <v>440763.0736113454</v>
+        <v>440763.0736113453</v>
       </c>
       <c r="K2" t="n">
         <v>440763.0736113455</v>
       </c>
       <c r="L2" t="n">
-        <v>440763.0736113453</v>
+        <v>440763.0736113455</v>
       </c>
       <c r="M2" t="n">
         <v>361380.8087568223</v>
       </c>
       <c r="N2" t="n">
-        <v>361380.8087568225</v>
+        <v>361380.8087568223</v>
       </c>
       <c r="O2" t="n">
         <v>361380.8087568224</v>
@@ -26432,7 +26432,7 @@
         <v>25695.59298581225</v>
       </c>
       <c r="G4" t="n">
-        <v>25695.59298581226</v>
+        <v>25695.59298581225</v>
       </c>
       <c r="H4" t="n">
         <v>25695.59298581226</v>
@@ -26453,10 +26453,10 @@
         <v>65243.45444037048</v>
       </c>
       <c r="N4" t="n">
-        <v>65243.45444037047</v>
+        <v>65243.45444037048</v>
       </c>
       <c r="O4" t="n">
-        <v>65243.45444037048</v>
+        <v>65243.45444037049</v>
       </c>
       <c r="P4" t="n">
         <v>65243.45444037049</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155262.3790929941</v>
+        <v>155302.101293807</v>
       </c>
       <c r="C6" t="n">
-        <v>155262.3790929943</v>
+        <v>155302.1012938072</v>
       </c>
       <c r="D6" t="n">
-        <v>155262.3790929942</v>
+        <v>155302.1012938073</v>
       </c>
       <c r="E6" t="n">
-        <v>-256280.3709160445</v>
+        <v>-246331.9693600929</v>
       </c>
       <c r="F6" t="n">
-        <v>222642.3442345133</v>
+        <v>232590.745790465</v>
       </c>
       <c r="G6" t="n">
-        <v>222642.3442345134</v>
+        <v>232590.7457904651</v>
       </c>
       <c r="H6" t="n">
-        <v>222642.3442345134</v>
+        <v>232590.7457904651</v>
       </c>
       <c r="I6" t="n">
-        <v>160167.3719254095</v>
+        <v>165417.9195390154</v>
       </c>
       <c r="J6" t="n">
-        <v>277437.8066734779</v>
+        <v>282688.3542870837</v>
       </c>
       <c r="K6" t="n">
-        <v>277437.806673478</v>
+        <v>282688.354287084</v>
       </c>
       <c r="L6" t="n">
-        <v>277437.8066734778</v>
+        <v>282688.354287084</v>
       </c>
       <c r="M6" t="n">
-        <v>249660.5196470694</v>
+        <v>257292.535206311</v>
       </c>
       <c r="N6" t="n">
-        <v>249660.5196470695</v>
+        <v>257292.5352063111</v>
       </c>
       <c r="O6" t="n">
-        <v>249660.5196470694</v>
+        <v>257292.5352063112</v>
       </c>
       <c r="P6" t="n">
-        <v>249660.5196470694</v>
+        <v>257292.5352063112</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="F4" t="n">
         <v>223.5533230558146</v>
       </c>
       <c r="G4" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="H4" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="I4" t="n">
         <v>664.5505919742847</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>440.99726891847</v>
+        <v>440.9972689184701</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.5533230558147</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>87.33027369883108</v>
       </c>
       <c r="K11" t="n">
         <v>42.26229005002034</v>
@@ -35427,10 +35427,10 @@
         <v>117.4024268293108</v>
       </c>
       <c r="P11" t="n">
-        <v>223.5533230558147</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.8590592073768</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K12" t="n">
-        <v>83.33642664177329</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L12" t="n">
         <v>101.0479227803936</v>
@@ -35509,7 +35509,7 @@
         <v>76.74784385057103</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9577581446065</v>
+        <v>150.4317318466752</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35582,7 +35582,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O13" t="n">
-        <v>155.3504189251966</v>
+        <v>155.3504189251965</v>
       </c>
       <c r="P13" t="n">
         <v>109.1708561270256</v>
@@ -35737,7 +35737,7 @@
         <v>137.4705518553105</v>
       </c>
       <c r="N15" t="n">
-        <v>155.6631750901101</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="O15" t="n">
         <v>119.957156363289</v>
@@ -35746,7 +35746,7 @@
         <v>76.74784385057103</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.4317318466752</v>
+        <v>82.54158388097073</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,7 +35819,7 @@
         <v>185.7048597725142</v>
       </c>
       <c r="O16" t="n">
-        <v>155.3504189251966</v>
+        <v>155.3504189251965</v>
       </c>
       <c r="P16" t="n">
         <v>109.1708561270256</v>
@@ -35886,7 +35886,7 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8084663746374</v>
+        <v>178.8084663746372</v>
       </c>
       <c r="L17" t="n">
         <v>89.70461482158225</v>
@@ -35968,13 +35968,13 @@
         <v>40.35142989467198</v>
       </c>
       <c r="L18" t="n">
-        <v>101.0479227803936</v>
+        <v>200.1372880971352</v>
       </c>
       <c r="M18" t="n">
-        <v>137.4705518553105</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="N18" t="n">
-        <v>198.6481718372114</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="O18" t="n">
         <v>119.957156363289</v>
@@ -35983,7 +35983,7 @@
         <v>76.74784385057103</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9577581446065</v>
+        <v>0.8804704087574464</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>42.26229005002034</v>
       </c>
       <c r="L20" t="n">
-        <v>223.5533230558147</v>
+        <v>124.9964191785486</v>
       </c>
       <c r="M20" t="n">
-        <v>223.5533230558147</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N20" t="n">
-        <v>212.6423538306379</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O20" t="n">
-        <v>117.4024268293108</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="P20" t="n">
-        <v>65.35075928054897</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Q20" t="n">
         <v>0.4163586239066888</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>42.98499674710119</v>
       </c>
       <c r="K21" t="n">
         <v>40.35142989467198</v>
@@ -36214,13 +36214,13 @@
         <v>155.6631750901101</v>
       </c>
       <c r="O21" t="n">
-        <v>223.5533230558147</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P21" t="n">
         <v>76.74784385057103</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3465881991821</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>163.0990880341188</v>
+        <v>148.1794241832453</v>
       </c>
       <c r="K23" t="n">
-        <v>366.4077026211851</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L23" t="n">
-        <v>89.70461482158225</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M23" t="n">
-        <v>338.1139624192413</v>
+        <v>581.3165324623117</v>
       </c>
       <c r="N23" t="n">
         <v>575.943046204454</v>
@@ -36375,7 +36375,7 @@
         <v>498.2026080920562</v>
       </c>
       <c r="P23" t="n">
-        <v>387.1494674520316</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q23" t="n">
         <v>212.7313492838114</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K24" t="n">
         <v>304.8166669072506</v>
       </c>
       <c r="L24" t="n">
-        <v>101.0479227803936</v>
+        <v>258.7174569388196</v>
       </c>
       <c r="M24" t="n">
         <v>603.1756156053104</v>
@@ -36451,7 +36451,7 @@
         <v>635.0055494336636</v>
       </c>
       <c r="O24" t="n">
-        <v>381.1377135667474</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P24" t="n">
         <v>395.2106124905082</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K26" t="n">
-        <v>366.4077026211851</v>
+        <v>86.34409929040947</v>
       </c>
       <c r="L26" t="n">
         <v>507.3658293720327</v>
@@ -36609,13 +36609,13 @@
         <v>575.943046204454</v>
       </c>
       <c r="O26" t="n">
-        <v>498.2026080920562</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P26" t="n">
-        <v>101.6997615525343</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4163586239066888</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>304.8166669072506</v>
       </c>
       <c r="L27" t="n">
-        <v>471.8882680838527</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M27" t="n">
         <v>603.1756156053104</v>
       </c>
       <c r="N27" t="n">
-        <v>155.6631750901101</v>
+        <v>635.0055494336636</v>
       </c>
       <c r="O27" t="n">
-        <v>489.6397426068417</v>
+        <v>513.8194756400185</v>
       </c>
       <c r="P27" t="n">
         <v>395.2106124905082</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9577581446065</v>
+        <v>78.27599607133591</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>163.0990880341188</v>
       </c>
       <c r="K29" t="n">
         <v>366.4077026211851</v>
@@ -36840,19 +36840,19 @@
         <v>507.3658293720327</v>
       </c>
       <c r="M29" t="n">
-        <v>581.3165324623117</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N29" t="n">
-        <v>575.943046204454</v>
+        <v>364.5927951037658</v>
       </c>
       <c r="O29" t="n">
         <v>498.2026080920562</v>
       </c>
       <c r="P29" t="n">
-        <v>101.6997615525343</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4163586239066888</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>471.8882680838527</v>
       </c>
       <c r="M30" t="n">
-        <v>390.0048044602773</v>
+        <v>475.4848595271013</v>
       </c>
       <c r="N30" t="n">
-        <v>635.0055494336636</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O30" t="n">
-        <v>119.957156363289</v>
+        <v>513.8194756400185</v>
       </c>
       <c r="P30" t="n">
         <v>395.2106124905082</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>36.34900227198514</v>
       </c>
       <c r="K32" t="n">
-        <v>42.26229005002034</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L32" t="n">
-        <v>333.7465453837954</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M32" t="n">
         <v>581.3165324623117</v>
@@ -37086,10 +37086,10 @@
         <v>498.2026080920562</v>
       </c>
       <c r="P32" t="n">
-        <v>387.1494674520316</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.7313492838114</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>119.7573281704581</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L33" t="n">
-        <v>471.8882680838527</v>
+        <v>232.8313977197012</v>
       </c>
       <c r="M33" t="n">
         <v>603.1756156053104</v>
@@ -37165,7 +37165,7 @@
         <v>513.8194756400185</v>
       </c>
       <c r="P33" t="n">
-        <v>76.74784385057103</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q33" t="n">
         <v>210.9577581446065</v>
@@ -37308,7 +37308,7 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K35" t="n">
-        <v>366.4077026211851</v>
+        <v>203.2837898936225</v>
       </c>
       <c r="L35" t="n">
         <v>89.70461482158225</v>
@@ -37317,10 +37317,10 @@
         <v>131.8029989694791</v>
       </c>
       <c r="N35" t="n">
-        <v>138.5961217924699</v>
+        <v>440.99726891847</v>
       </c>
       <c r="O35" t="n">
-        <v>256.6796612277483</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P35" t="n">
         <v>387.1494674520316</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>304.8166669072506</v>
+        <v>40.35142989467198</v>
       </c>
       <c r="L36" t="n">
         <v>440.99726891847</v>
       </c>
       <c r="M36" t="n">
-        <v>137.4705518553105</v>
+        <v>440.99726891847</v>
       </c>
       <c r="N36" t="n">
         <v>155.6631750901101</v>
       </c>
       <c r="O36" t="n">
-        <v>311.1322585320198</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P36" t="n">
-        <v>395.2106124905082</v>
+        <v>226.284122053477</v>
       </c>
       <c r="Q36" t="n">
         <v>0.8804704087574464</v>
@@ -37548,16 +37548,16 @@
         <v>366.4077026211851</v>
       </c>
       <c r="L38" t="n">
-        <v>130.3064360132571</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M38" t="n">
-        <v>440.99726891847</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N38" t="n">
         <v>138.5961217924699</v>
       </c>
       <c r="O38" t="n">
-        <v>440.99726891847</v>
+        <v>439.500705962248</v>
       </c>
       <c r="P38" t="n">
         <v>65.35075928054897</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>366.4077026211851</v>
       </c>
       <c r="L41" t="n">
-        <v>89.70461482158225</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M41" t="n">
-        <v>440.99726891847</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N41" t="n">
         <v>138.5961217924699</v>
       </c>
       <c r="O41" t="n">
-        <v>117.4024268293108</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P41" t="n">
-        <v>217.2324319014784</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.7313492838114</v>
+        <v>162.0188837018036</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>40.35142989467198</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L42" t="n">
-        <v>279.5225802557385</v>
+        <v>422.0950833513518</v>
       </c>
       <c r="M42" t="n">
-        <v>440.99726891847</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N42" t="n">
         <v>155.6631750901101</v>
@@ -38019,25 +38019,25 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K44" t="n">
-        <v>366.4077026211851</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L44" t="n">
-        <v>89.70461482158225</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M44" t="n">
         <v>131.8029989694791</v>
       </c>
       <c r="N44" t="n">
-        <v>138.5961217924699</v>
+        <v>440.99726891847</v>
       </c>
       <c r="O44" t="n">
-        <v>440.99726891847</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P44" t="n">
         <v>387.1494674520316</v>
       </c>
       <c r="Q44" t="n">
-        <v>28.41374159308975</v>
+        <v>22.46019503052575</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K45" t="n">
         <v>304.8166669072506</v>
@@ -38104,13 +38104,13 @@
         <v>101.0479227803936</v>
       </c>
       <c r="M45" t="n">
-        <v>440.99726891847</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N45" t="n">
-        <v>155.6631750901101</v>
+        <v>373.1993126160359</v>
       </c>
       <c r="O45" t="n">
-        <v>137.4775998710877</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P45" t="n">
         <v>395.2106124905082</v>
